--- a/1165/1165-testcase.xlsx
+++ b/1165/1165-testcase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\1165\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\33-cdptw1-1\1165\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1317,9 +1317,60 @@
     <xf numFmtId="49" fontId="14" fillId="2" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="2" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="2" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1335,23 +1386,146 @@
     <xf numFmtId="49" fontId="13" fillId="2" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="2" borderId="14" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1362,15 +1536,6 @@
     <xf numFmtId="49" fontId="13" fillId="2" borderId="16" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1379,171 +1544,6 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -5503,287 +5503,287 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="109" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="103"/>
-      <c r="Z1" s="103"/>
-      <c r="AA1" s="103"/>
-      <c r="AB1" s="103"/>
-      <c r="AC1" s="103"/>
-      <c r="AD1" s="103"/>
-      <c r="AE1" s="103"/>
-      <c r="AF1" s="103"/>
-      <c r="AG1" s="103"/>
-      <c r="AH1" s="103"/>
-      <c r="AI1" s="104"/>
-      <c r="AJ1" s="110" t="s">
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
+      <c r="U1" s="128"/>
+      <c r="V1" s="128"/>
+      <c r="W1" s="128"/>
+      <c r="X1" s="128"/>
+      <c r="Y1" s="128"/>
+      <c r="Z1" s="128"/>
+      <c r="AA1" s="128"/>
+      <c r="AB1" s="128"/>
+      <c r="AC1" s="128"/>
+      <c r="AD1" s="128"/>
+      <c r="AE1" s="128"/>
+      <c r="AF1" s="128"/>
+      <c r="AG1" s="128"/>
+      <c r="AH1" s="128"/>
+      <c r="AI1" s="129"/>
+      <c r="AJ1" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="AK1" s="111"/>
-      <c r="AL1" s="111"/>
-      <c r="AM1" s="111"/>
-      <c r="AN1" s="112" t="s">
+      <c r="AK1" s="136"/>
+      <c r="AL1" s="136"/>
+      <c r="AM1" s="136"/>
+      <c r="AN1" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="AO1" s="110"/>
-      <c r="AP1" s="111"/>
-      <c r="AQ1" s="111"/>
-      <c r="AR1" s="111"/>
-      <c r="AS1" s="112" t="s">
+      <c r="AO1" s="135"/>
+      <c r="AP1" s="136"/>
+      <c r="AQ1" s="136"/>
+      <c r="AR1" s="136"/>
+      <c r="AS1" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="AT1" s="111"/>
-      <c r="AU1" s="111"/>
-      <c r="AV1" s="111"/>
-      <c r="AW1" s="92" t="s">
+      <c r="AT1" s="136"/>
+      <c r="AU1" s="136"/>
+      <c r="AV1" s="136"/>
+      <c r="AW1" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="AX1" s="93"/>
-      <c r="AY1" s="93"/>
-      <c r="AZ1" s="94"/>
-      <c r="BA1" s="101" t="s">
+      <c r="AX1" s="124"/>
+      <c r="AY1" s="124"/>
+      <c r="AZ1" s="125"/>
+      <c r="BA1" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="BB1" s="101"/>
-      <c r="BC1" s="101"/>
-      <c r="BD1" s="101"/>
-      <c r="BE1" s="101"/>
-      <c r="BF1" s="101"/>
-      <c r="BG1" s="101"/>
-      <c r="BH1" s="101"/>
+      <c r="BB1" s="126"/>
+      <c r="BC1" s="126"/>
+      <c r="BD1" s="126"/>
+      <c r="BE1" s="126"/>
+      <c r="BF1" s="126"/>
+      <c r="BG1" s="126"/>
+      <c r="BH1" s="126"/>
       <c r="BI1" s="7"/>
     </row>
     <row r="2" spans="1:61">
-      <c r="A2" s="98"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="103"/>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="103"/>
-      <c r="AC2" s="103"/>
-      <c r="AD2" s="103"/>
-      <c r="AE2" s="103"/>
-      <c r="AF2" s="103"/>
-      <c r="AG2" s="103"/>
-      <c r="AH2" s="103"/>
-      <c r="AI2" s="104"/>
-      <c r="AJ2" s="105" t="s">
+      <c r="A2" s="100"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
+      <c r="Z2" s="128"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="128"/>
+      <c r="AD2" s="128"/>
+      <c r="AE2" s="128"/>
+      <c r="AF2" s="128"/>
+      <c r="AG2" s="128"/>
+      <c r="AH2" s="128"/>
+      <c r="AI2" s="129"/>
+      <c r="AJ2" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="AK2" s="106"/>
-      <c r="AL2" s="106"/>
-      <c r="AM2" s="106"/>
-      <c r="AN2" s="107">
+      <c r="AK2" s="131"/>
+      <c r="AL2" s="131"/>
+      <c r="AM2" s="131"/>
+      <c r="AN2" s="132">
         <f>COUNTIF($AR:$AR,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="AO2" s="105"/>
-      <c r="AP2" s="106"/>
-      <c r="AQ2" s="106"/>
-      <c r="AR2" s="106"/>
-      <c r="AS2" s="107">
+      <c r="AO2" s="130"/>
+      <c r="AP2" s="131"/>
+      <c r="AQ2" s="131"/>
+      <c r="AR2" s="131"/>
+      <c r="AS2" s="132">
         <f>COUNTIF($AR:$AR,"NG")</f>
         <v>0</v>
       </c>
-      <c r="AT2" s="106"/>
-      <c r="AU2" s="106"/>
-      <c r="AV2" s="106"/>
-      <c r="AW2" s="92" t="s">
+      <c r="AT2" s="131"/>
+      <c r="AU2" s="131"/>
+      <c r="AV2" s="131"/>
+      <c r="AW2" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="AX2" s="93"/>
-      <c r="AY2" s="93"/>
-      <c r="AZ2" s="94"/>
-      <c r="BA2" s="108" t="s">
+      <c r="AX2" s="124"/>
+      <c r="AY2" s="124"/>
+      <c r="AZ2" s="125"/>
+      <c r="BA2" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="BB2" s="101"/>
-      <c r="BC2" s="101"/>
-      <c r="BD2" s="101"/>
-      <c r="BE2" s="101"/>
-      <c r="BF2" s="101"/>
-      <c r="BG2" s="101"/>
-      <c r="BH2" s="101"/>
+      <c r="BB2" s="126"/>
+      <c r="BC2" s="126"/>
+      <c r="BD2" s="126"/>
+      <c r="BE2" s="126"/>
+      <c r="BF2" s="126"/>
+      <c r="BG2" s="126"/>
+      <c r="BH2" s="126"/>
       <c r="BI2" s="7"/>
     </row>
     <row r="3" spans="1:61">
-      <c r="A3" s="122"/>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="129"/>
-      <c r="M3" s="129"/>
-      <c r="N3" s="129"/>
-      <c r="O3" s="129"/>
-      <c r="P3" s="129"/>
-      <c r="Q3" s="129"/>
-      <c r="R3" s="129"/>
-      <c r="S3" s="129"/>
-      <c r="T3" s="129"/>
-      <c r="U3" s="129"/>
-      <c r="V3" s="129"/>
-      <c r="W3" s="129"/>
-      <c r="X3" s="129"/>
-      <c r="Y3" s="129"/>
-      <c r="Z3" s="129"/>
-      <c r="AA3" s="129"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="129"/>
-      <c r="AD3" s="129"/>
-      <c r="AE3" s="129"/>
-      <c r="AF3" s="129"/>
-      <c r="AG3" s="129"/>
-      <c r="AH3" s="129"/>
-      <c r="AI3" s="130"/>
-      <c r="AJ3" s="92" t="s">
+      <c r="A3" s="109"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="116"/>
+      <c r="AD3" s="116"/>
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="116"/>
+      <c r="AG3" s="116"/>
+      <c r="AH3" s="116"/>
+      <c r="AI3" s="117"/>
+      <c r="AJ3" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="AK3" s="93"/>
-      <c r="AL3" s="93"/>
-      <c r="AM3" s="94"/>
-      <c r="AN3" s="95"/>
-      <c r="AO3" s="96"/>
-      <c r="AP3" s="96"/>
-      <c r="AQ3" s="96"/>
-      <c r="AR3" s="96"/>
-      <c r="AS3" s="96"/>
-      <c r="AT3" s="96"/>
-      <c r="AU3" s="96"/>
-      <c r="AV3" s="97"/>
-      <c r="AW3" s="92"/>
-      <c r="AX3" s="93"/>
-      <c r="AY3" s="93"/>
-      <c r="AZ3" s="94"/>
-      <c r="BA3" s="95"/>
-      <c r="BB3" s="96"/>
-      <c r="BC3" s="96"/>
-      <c r="BD3" s="96"/>
-      <c r="BE3" s="96"/>
-      <c r="BF3" s="96"/>
-      <c r="BG3" s="96"/>
-      <c r="BH3" s="97"/>
+      <c r="AK3" s="124"/>
+      <c r="AL3" s="124"/>
+      <c r="AM3" s="125"/>
+      <c r="AN3" s="138"/>
+      <c r="AO3" s="139"/>
+      <c r="AP3" s="139"/>
+      <c r="AQ3" s="139"/>
+      <c r="AR3" s="139"/>
+      <c r="AS3" s="139"/>
+      <c r="AT3" s="139"/>
+      <c r="AU3" s="139"/>
+      <c r="AV3" s="140"/>
+      <c r="AW3" s="123"/>
+      <c r="AX3" s="124"/>
+      <c r="AY3" s="124"/>
+      <c r="AZ3" s="125"/>
+      <c r="BA3" s="138"/>
+      <c r="BB3" s="139"/>
+      <c r="BC3" s="139"/>
+      <c r="BD3" s="139"/>
+      <c r="BE3" s="139"/>
+      <c r="BF3" s="139"/>
+      <c r="BG3" s="139"/>
+      <c r="BH3" s="140"/>
       <c r="BI3" s="7"/>
     </row>
     <row r="4" spans="1:61">
-      <c r="A4" s="125"/>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132"/>
-      <c r="L4" s="132"/>
-      <c r="M4" s="132"/>
-      <c r="N4" s="132"/>
-      <c r="O4" s="132"/>
-      <c r="P4" s="132"/>
-      <c r="Q4" s="132"/>
-      <c r="R4" s="132"/>
-      <c r="S4" s="132"/>
-      <c r="T4" s="132"/>
-      <c r="U4" s="132"/>
-      <c r="V4" s="132"/>
-      <c r="W4" s="132"/>
-      <c r="X4" s="132"/>
-      <c r="Y4" s="132"/>
-      <c r="Z4" s="132"/>
-      <c r="AA4" s="132"/>
-      <c r="AB4" s="132"/>
-      <c r="AC4" s="132"/>
-      <c r="AD4" s="132"/>
-      <c r="AE4" s="132"/>
-      <c r="AF4" s="132"/>
-      <c r="AG4" s="132"/>
-      <c r="AH4" s="132"/>
-      <c r="AI4" s="133"/>
-      <c r="AJ4" s="98" t="s">
+      <c r="A4" s="112"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="119"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="119"/>
+      <c r="V4" s="119"/>
+      <c r="W4" s="119"/>
+      <c r="X4" s="119"/>
+      <c r="Y4" s="119"/>
+      <c r="Z4" s="119"/>
+      <c r="AA4" s="119"/>
+      <c r="AB4" s="119"/>
+      <c r="AC4" s="119"/>
+      <c r="AD4" s="119"/>
+      <c r="AE4" s="119"/>
+      <c r="AF4" s="119"/>
+      <c r="AG4" s="119"/>
+      <c r="AH4" s="119"/>
+      <c r="AI4" s="120"/>
+      <c r="AJ4" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="AK4" s="99"/>
-      <c r="AL4" s="99"/>
-      <c r="AM4" s="100"/>
-      <c r="AN4" s="113"/>
-      <c r="AO4" s="114"/>
-      <c r="AP4" s="114"/>
-      <c r="AQ4" s="114"/>
-      <c r="AR4" s="114"/>
-      <c r="AS4" s="114"/>
-      <c r="AT4" s="114"/>
-      <c r="AU4" s="114"/>
-      <c r="AV4" s="115"/>
-      <c r="AW4" s="98" t="s">
+      <c r="AK4" s="101"/>
+      <c r="AL4" s="101"/>
+      <c r="AM4" s="102"/>
+      <c r="AN4" s="97"/>
+      <c r="AO4" s="98"/>
+      <c r="AP4" s="98"/>
+      <c r="AQ4" s="98"/>
+      <c r="AR4" s="98"/>
+      <c r="AS4" s="98"/>
+      <c r="AT4" s="98"/>
+      <c r="AU4" s="98"/>
+      <c r="AV4" s="99"/>
+      <c r="AW4" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="AX4" s="99"/>
-      <c r="AY4" s="99"/>
-      <c r="AZ4" s="100"/>
-      <c r="BA4" s="113"/>
-      <c r="BB4" s="114"/>
-      <c r="BC4" s="114"/>
-      <c r="BD4" s="114"/>
-      <c r="BE4" s="114"/>
-      <c r="BF4" s="114"/>
-      <c r="BG4" s="114"/>
-      <c r="BH4" s="115"/>
+      <c r="AX4" s="101"/>
+      <c r="AY4" s="101"/>
+      <c r="AZ4" s="102"/>
+      <c r="BA4" s="97"/>
+      <c r="BB4" s="98"/>
+      <c r="BC4" s="98"/>
+      <c r="BD4" s="98"/>
+      <c r="BE4" s="98"/>
+      <c r="BF4" s="98"/>
+      <c r="BG4" s="98"/>
+      <c r="BH4" s="99"/>
     </row>
     <row r="5" spans="1:61" s="2" customFormat="1">
       <c r="A5" s="6"/>
@@ -5849,29 +5849,29 @@
       <c r="BI5" s="6"/>
     </row>
     <row r="6" spans="1:61" ht="18.75">
-      <c r="A6" s="134" t="s">
+      <c r="A6" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="134"/>
-      <c r="C6" s="116" t="s">
+      <c r="B6" s="121"/>
+      <c r="C6" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="117"/>
-      <c r="M6" s="117"/>
-      <c r="N6" s="117"/>
-      <c r="O6" s="117"/>
-      <c r="P6" s="117"/>
-      <c r="Q6" s="117"/>
-      <c r="R6" s="117"/>
-      <c r="S6" s="117"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="104"/>
+      <c r="R6" s="104"/>
+      <c r="S6" s="104"/>
       <c r="T6" s="49" t="s">
         <v>21</v>
       </c>
@@ -5917,44 +5917,44 @@
       </c>
       <c r="AY6" s="50"/>
       <c r="AZ6" s="51"/>
-      <c r="BA6" s="121" t="s">
+      <c r="BA6" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="BB6" s="121"/>
-      <c r="BC6" s="121"/>
-      <c r="BD6" s="121"/>
-      <c r="BE6" s="121"/>
-      <c r="BF6" s="121"/>
-      <c r="BG6" s="121"/>
-      <c r="BH6" s="121"/>
+      <c r="BB6" s="108"/>
+      <c r="BC6" s="108"/>
+      <c r="BD6" s="108"/>
+      <c r="BE6" s="108"/>
+      <c r="BF6" s="108"/>
+      <c r="BG6" s="108"/>
+      <c r="BH6" s="108"/>
       <c r="BI6" s="8"/>
     </row>
     <row r="7" spans="1:61" s="3" customFormat="1" ht="18.75">
-      <c r="A7" s="135"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="118" t="s">
+      <c r="A7" s="122"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119" t="s">
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="120" t="s">
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="117"/>
-      <c r="O7" s="117"/>
-      <c r="P7" s="117"/>
-      <c r="Q7" s="117"/>
-      <c r="R7" s="117"/>
-      <c r="S7" s="117"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="104"/>
+      <c r="Q7" s="104"/>
+      <c r="R7" s="104"/>
+      <c r="S7" s="104"/>
       <c r="T7" s="52"/>
       <c r="U7" s="53"/>
       <c r="V7" s="53"/>
@@ -5988,14 +5988,14 @@
       <c r="AX7" s="52"/>
       <c r="AY7" s="53"/>
       <c r="AZ7" s="54"/>
-      <c r="BA7" s="121"/>
-      <c r="BB7" s="121"/>
-      <c r="BC7" s="121"/>
-      <c r="BD7" s="121"/>
-      <c r="BE7" s="121"/>
-      <c r="BF7" s="121"/>
-      <c r="BG7" s="121"/>
-      <c r="BH7" s="121"/>
+      <c r="BA7" s="108"/>
+      <c r="BB7" s="108"/>
+      <c r="BC7" s="108"/>
+      <c r="BD7" s="108"/>
+      <c r="BE7" s="108"/>
+      <c r="BF7" s="108"/>
+      <c r="BG7" s="108"/>
+      <c r="BH7" s="108"/>
       <c r="BI7" s="9"/>
     </row>
     <row r="8" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
@@ -6017,39 +6017,39 @@
       <c r="J8" s="66"/>
       <c r="K8" s="66"/>
       <c r="L8" s="69"/>
-      <c r="M8" s="72" t="s">
+      <c r="M8" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="N8" s="78"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="78"/>
-      <c r="S8" s="79"/>
-      <c r="T8" s="77" t="s">
+      <c r="N8" s="80"/>
+      <c r="O8" s="80"/>
+      <c r="P8" s="80"/>
+      <c r="Q8" s="80"/>
+      <c r="R8" s="80"/>
+      <c r="S8" s="81"/>
+      <c r="T8" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="U8" s="78"/>
-      <c r="V8" s="78"/>
-      <c r="W8" s="78"/>
-      <c r="X8" s="78"/>
-      <c r="Y8" s="78"/>
-      <c r="Z8" s="78"/>
-      <c r="AA8" s="78"/>
-      <c r="AB8" s="78"/>
-      <c r="AC8" s="71" t="s">
+      <c r="U8" s="80"/>
+      <c r="V8" s="80"/>
+      <c r="W8" s="80"/>
+      <c r="X8" s="80"/>
+      <c r="Y8" s="80"/>
+      <c r="Z8" s="80"/>
+      <c r="AA8" s="80"/>
+      <c r="AB8" s="80"/>
+      <c r="AC8" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="AD8" s="78"/>
-      <c r="AE8" s="78"/>
-      <c r="AF8" s="78"/>
-      <c r="AG8" s="78"/>
-      <c r="AH8" s="78"/>
-      <c r="AI8" s="78"/>
-      <c r="AJ8" s="78"/>
-      <c r="AK8" s="78"/>
-      <c r="AL8" s="78"/>
-      <c r="AM8" s="79"/>
+      <c r="AD8" s="80"/>
+      <c r="AE8" s="80"/>
+      <c r="AF8" s="80"/>
+      <c r="AG8" s="80"/>
+      <c r="AH8" s="80"/>
+      <c r="AI8" s="80"/>
+      <c r="AJ8" s="80"/>
+      <c r="AK8" s="80"/>
+      <c r="AL8" s="80"/>
+      <c r="AM8" s="81"/>
       <c r="AN8" s="49" t="s">
         <v>56</v>
       </c>
@@ -6096,33 +6096,33 @@
       <c r="J9" s="68"/>
       <c r="K9" s="68"/>
       <c r="L9" s="70"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="81"/>
-      <c r="S9" s="82"/>
-      <c r="T9" s="80"/>
-      <c r="U9" s="81"/>
-      <c r="V9" s="81"/>
-      <c r="W9" s="81"/>
-      <c r="X9" s="81"/>
-      <c r="Y9" s="81"/>
-      <c r="Z9" s="81"/>
-      <c r="AA9" s="81"/>
-      <c r="AB9" s="81"/>
-      <c r="AC9" s="86"/>
-      <c r="AD9" s="87"/>
-      <c r="AE9" s="87"/>
-      <c r="AF9" s="87"/>
-      <c r="AG9" s="87"/>
-      <c r="AH9" s="87"/>
-      <c r="AI9" s="87"/>
-      <c r="AJ9" s="87"/>
-      <c r="AK9" s="87"/>
-      <c r="AL9" s="87"/>
-      <c r="AM9" s="88"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="87"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="87"/>
+      <c r="R9" s="87"/>
+      <c r="S9" s="88"/>
+      <c r="T9" s="86"/>
+      <c r="U9" s="87"/>
+      <c r="V9" s="87"/>
+      <c r="W9" s="87"/>
+      <c r="X9" s="87"/>
+      <c r="Y9" s="87"/>
+      <c r="Z9" s="87"/>
+      <c r="AA9" s="87"/>
+      <c r="AB9" s="87"/>
+      <c r="AC9" s="82"/>
+      <c r="AD9" s="83"/>
+      <c r="AE9" s="83"/>
+      <c r="AF9" s="83"/>
+      <c r="AG9" s="83"/>
+      <c r="AH9" s="83"/>
+      <c r="AI9" s="83"/>
+      <c r="AJ9" s="83"/>
+      <c r="AK9" s="83"/>
+      <c r="AL9" s="83"/>
+      <c r="AM9" s="84"/>
       <c r="AN9" s="52"/>
       <c r="AO9" s="53"/>
       <c r="AP9" s="53"/>
@@ -6165,39 +6165,39 @@
       <c r="J10" s="66"/>
       <c r="K10" s="66"/>
       <c r="L10" s="69"/>
-      <c r="M10" s="71" t="s">
+      <c r="M10" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="73"/>
-      <c r="T10" s="77" t="s">
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="89"/>
+      <c r="S10" s="90"/>
+      <c r="T10" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="U10" s="78"/>
-      <c r="V10" s="78"/>
-      <c r="W10" s="78"/>
-      <c r="X10" s="78"/>
-      <c r="Y10" s="78"/>
-      <c r="Z10" s="78"/>
-      <c r="AA10" s="78"/>
-      <c r="AB10" s="79"/>
-      <c r="AC10" s="71" t="s">
+      <c r="U10" s="80"/>
+      <c r="V10" s="80"/>
+      <c r="W10" s="80"/>
+      <c r="X10" s="80"/>
+      <c r="Y10" s="80"/>
+      <c r="Z10" s="80"/>
+      <c r="AA10" s="80"/>
+      <c r="AB10" s="81"/>
+      <c r="AC10" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="AD10" s="72"/>
-      <c r="AE10" s="72"/>
-      <c r="AF10" s="72"/>
-      <c r="AG10" s="72"/>
-      <c r="AH10" s="72"/>
-      <c r="AI10" s="72"/>
-      <c r="AJ10" s="72"/>
-      <c r="AK10" s="72"/>
-      <c r="AL10" s="72"/>
-      <c r="AM10" s="73"/>
+      <c r="AD10" s="89"/>
+      <c r="AE10" s="89"/>
+      <c r="AF10" s="89"/>
+      <c r="AG10" s="89"/>
+      <c r="AH10" s="89"/>
+      <c r="AI10" s="89"/>
+      <c r="AJ10" s="89"/>
+      <c r="AK10" s="89"/>
+      <c r="AL10" s="89"/>
+      <c r="AM10" s="90"/>
       <c r="AN10" s="49" t="s">
         <v>56</v>
       </c>
@@ -6239,38 +6239,38 @@
       <c r="E11" s="68"/>
       <c r="F11" s="68"/>
       <c r="G11" s="68"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="137"/>
-      <c r="K11" s="137"/>
-      <c r="L11" s="138"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="75"/>
-      <c r="P11" s="75"/>
-      <c r="Q11" s="75"/>
-      <c r="R11" s="75"/>
-      <c r="S11" s="76"/>
-      <c r="T11" s="80"/>
-      <c r="U11" s="81"/>
-      <c r="V11" s="81"/>
-      <c r="W11" s="81"/>
-      <c r="X11" s="81"/>
-      <c r="Y11" s="81"/>
-      <c r="Z11" s="81"/>
-      <c r="AA11" s="81"/>
-      <c r="AB11" s="82"/>
-      <c r="AC11" s="74"/>
-      <c r="AD11" s="75"/>
-      <c r="AE11" s="75"/>
-      <c r="AF11" s="75"/>
-      <c r="AG11" s="75"/>
-      <c r="AH11" s="75"/>
-      <c r="AI11" s="75"/>
-      <c r="AJ11" s="75"/>
-      <c r="AK11" s="75"/>
-      <c r="AL11" s="75"/>
-      <c r="AM11" s="76"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="92"/>
+      <c r="S11" s="93"/>
+      <c r="T11" s="86"/>
+      <c r="U11" s="87"/>
+      <c r="V11" s="87"/>
+      <c r="W11" s="87"/>
+      <c r="X11" s="87"/>
+      <c r="Y11" s="87"/>
+      <c r="Z11" s="87"/>
+      <c r="AA11" s="87"/>
+      <c r="AB11" s="88"/>
+      <c r="AC11" s="91"/>
+      <c r="AD11" s="92"/>
+      <c r="AE11" s="92"/>
+      <c r="AF11" s="92"/>
+      <c r="AG11" s="92"/>
+      <c r="AH11" s="92"/>
+      <c r="AI11" s="92"/>
+      <c r="AJ11" s="92"/>
+      <c r="AK11" s="92"/>
+      <c r="AL11" s="92"/>
+      <c r="AM11" s="93"/>
       <c r="AN11" s="52"/>
       <c r="AO11" s="53"/>
       <c r="AP11" s="53"/>
@@ -6313,39 +6313,39 @@
       <c r="J12" s="66"/>
       <c r="K12" s="66"/>
       <c r="L12" s="69"/>
-      <c r="M12" s="72" t="s">
+      <c r="M12" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="N12" s="78"/>
-      <c r="O12" s="78"/>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="79"/>
-      <c r="T12" s="77" t="s">
+      <c r="N12" s="80"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="80"/>
+      <c r="Q12" s="80"/>
+      <c r="R12" s="80"/>
+      <c r="S12" s="81"/>
+      <c r="T12" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="U12" s="78"/>
-      <c r="V12" s="78"/>
-      <c r="W12" s="78"/>
-      <c r="X12" s="78"/>
-      <c r="Y12" s="78"/>
-      <c r="Z12" s="78"/>
-      <c r="AA12" s="78"/>
-      <c r="AB12" s="78"/>
-      <c r="AC12" s="71" t="s">
+      <c r="U12" s="80"/>
+      <c r="V12" s="80"/>
+      <c r="W12" s="80"/>
+      <c r="X12" s="80"/>
+      <c r="Y12" s="80"/>
+      <c r="Z12" s="80"/>
+      <c r="AA12" s="80"/>
+      <c r="AB12" s="80"/>
+      <c r="AC12" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="AD12" s="78"/>
-      <c r="AE12" s="78"/>
-      <c r="AF12" s="78"/>
-      <c r="AG12" s="78"/>
-      <c r="AH12" s="78"/>
-      <c r="AI12" s="78"/>
-      <c r="AJ12" s="78"/>
-      <c r="AK12" s="78"/>
-      <c r="AL12" s="78"/>
-      <c r="AM12" s="79"/>
+      <c r="AD12" s="80"/>
+      <c r="AE12" s="80"/>
+      <c r="AF12" s="80"/>
+      <c r="AG12" s="80"/>
+      <c r="AH12" s="80"/>
+      <c r="AI12" s="80"/>
+      <c r="AJ12" s="80"/>
+      <c r="AK12" s="80"/>
+      <c r="AL12" s="80"/>
+      <c r="AM12" s="81"/>
       <c r="AN12" s="49" t="s">
         <v>56</v>
       </c>
@@ -6392,33 +6392,33 @@
       <c r="J13" s="68"/>
       <c r="K13" s="68"/>
       <c r="L13" s="70"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="81"/>
-      <c r="P13" s="81"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="81"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="80"/>
-      <c r="U13" s="81"/>
-      <c r="V13" s="81"/>
-      <c r="W13" s="81"/>
-      <c r="X13" s="81"/>
-      <c r="Y13" s="81"/>
-      <c r="Z13" s="81"/>
-      <c r="AA13" s="81"/>
-      <c r="AB13" s="81"/>
-      <c r="AC13" s="86"/>
-      <c r="AD13" s="87"/>
-      <c r="AE13" s="87"/>
-      <c r="AF13" s="87"/>
-      <c r="AG13" s="87"/>
-      <c r="AH13" s="87"/>
-      <c r="AI13" s="87"/>
-      <c r="AJ13" s="87"/>
-      <c r="AK13" s="87"/>
-      <c r="AL13" s="87"/>
-      <c r="AM13" s="88"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="87"/>
+      <c r="S13" s="88"/>
+      <c r="T13" s="86"/>
+      <c r="U13" s="87"/>
+      <c r="V13" s="87"/>
+      <c r="W13" s="87"/>
+      <c r="X13" s="87"/>
+      <c r="Y13" s="87"/>
+      <c r="Z13" s="87"/>
+      <c r="AA13" s="87"/>
+      <c r="AB13" s="87"/>
+      <c r="AC13" s="82"/>
+      <c r="AD13" s="83"/>
+      <c r="AE13" s="83"/>
+      <c r="AF13" s="83"/>
+      <c r="AG13" s="83"/>
+      <c r="AH13" s="83"/>
+      <c r="AI13" s="83"/>
+      <c r="AJ13" s="83"/>
+      <c r="AK13" s="83"/>
+      <c r="AL13" s="83"/>
+      <c r="AM13" s="84"/>
       <c r="AN13" s="52"/>
       <c r="AO13" s="53"/>
       <c r="AP13" s="53"/>
@@ -6461,39 +6461,39 @@
       <c r="J14" s="66"/>
       <c r="K14" s="66"/>
       <c r="L14" s="69"/>
-      <c r="M14" s="72" t="s">
+      <c r="M14" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="N14" s="78"/>
-      <c r="O14" s="78"/>
-      <c r="P14" s="78"/>
-      <c r="Q14" s="78"/>
-      <c r="R14" s="78"/>
-      <c r="S14" s="79"/>
-      <c r="T14" s="77" t="s">
+      <c r="N14" s="80"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="80"/>
+      <c r="R14" s="80"/>
+      <c r="S14" s="81"/>
+      <c r="T14" s="85" t="s">
         <v>135</v>
       </c>
-      <c r="U14" s="78"/>
-      <c r="V14" s="78"/>
-      <c r="W14" s="78"/>
-      <c r="X14" s="78"/>
-      <c r="Y14" s="78"/>
-      <c r="Z14" s="78"/>
-      <c r="AA14" s="78"/>
-      <c r="AB14" s="78"/>
-      <c r="AC14" s="71" t="s">
+      <c r="U14" s="80"/>
+      <c r="V14" s="80"/>
+      <c r="W14" s="80"/>
+      <c r="X14" s="80"/>
+      <c r="Y14" s="80"/>
+      <c r="Z14" s="80"/>
+      <c r="AA14" s="80"/>
+      <c r="AB14" s="80"/>
+      <c r="AC14" s="79" t="s">
         <v>136</v>
       </c>
-      <c r="AD14" s="78"/>
-      <c r="AE14" s="78"/>
-      <c r="AF14" s="78"/>
-      <c r="AG14" s="78"/>
-      <c r="AH14" s="78"/>
-      <c r="AI14" s="78"/>
-      <c r="AJ14" s="78"/>
-      <c r="AK14" s="78"/>
-      <c r="AL14" s="78"/>
-      <c r="AM14" s="79"/>
+      <c r="AD14" s="80"/>
+      <c r="AE14" s="80"/>
+      <c r="AF14" s="80"/>
+      <c r="AG14" s="80"/>
+      <c r="AH14" s="80"/>
+      <c r="AI14" s="80"/>
+      <c r="AJ14" s="80"/>
+      <c r="AK14" s="80"/>
+      <c r="AL14" s="80"/>
+      <c r="AM14" s="81"/>
       <c r="AN14" s="49" t="s">
         <v>56</v>
       </c>
@@ -6540,33 +6540,33 @@
       <c r="J15" s="68"/>
       <c r="K15" s="68"/>
       <c r="L15" s="70"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="81"/>
-      <c r="O15" s="81"/>
-      <c r="P15" s="81"/>
-      <c r="Q15" s="81"/>
-      <c r="R15" s="81"/>
-      <c r="S15" s="82"/>
-      <c r="T15" s="80"/>
-      <c r="U15" s="81"/>
-      <c r="V15" s="81"/>
-      <c r="W15" s="81"/>
-      <c r="X15" s="81"/>
-      <c r="Y15" s="81"/>
-      <c r="Z15" s="81"/>
-      <c r="AA15" s="81"/>
-      <c r="AB15" s="81"/>
-      <c r="AC15" s="86"/>
-      <c r="AD15" s="87"/>
-      <c r="AE15" s="87"/>
-      <c r="AF15" s="87"/>
-      <c r="AG15" s="87"/>
-      <c r="AH15" s="87"/>
-      <c r="AI15" s="87"/>
-      <c r="AJ15" s="87"/>
-      <c r="AK15" s="87"/>
-      <c r="AL15" s="87"/>
-      <c r="AM15" s="88"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="87"/>
+      <c r="S15" s="88"/>
+      <c r="T15" s="86"/>
+      <c r="U15" s="87"/>
+      <c r="V15" s="87"/>
+      <c r="W15" s="87"/>
+      <c r="X15" s="87"/>
+      <c r="Y15" s="87"/>
+      <c r="Z15" s="87"/>
+      <c r="AA15" s="87"/>
+      <c r="AB15" s="87"/>
+      <c r="AC15" s="82"/>
+      <c r="AD15" s="83"/>
+      <c r="AE15" s="83"/>
+      <c r="AF15" s="83"/>
+      <c r="AG15" s="83"/>
+      <c r="AH15" s="83"/>
+      <c r="AI15" s="83"/>
+      <c r="AJ15" s="83"/>
+      <c r="AK15" s="83"/>
+      <c r="AL15" s="83"/>
+      <c r="AM15" s="84"/>
       <c r="AN15" s="52"/>
       <c r="AO15" s="53"/>
       <c r="AP15" s="53"/>
@@ -6609,39 +6609,39 @@
       <c r="J16" s="66"/>
       <c r="K16" s="66"/>
       <c r="L16" s="69"/>
-      <c r="M16" s="72" t="s">
+      <c r="M16" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="N16" s="78"/>
-      <c r="O16" s="78"/>
-      <c r="P16" s="78"/>
-      <c r="Q16" s="78"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="79"/>
-      <c r="T16" s="77" t="s">
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="80"/>
+      <c r="Q16" s="80"/>
+      <c r="R16" s="80"/>
+      <c r="S16" s="81"/>
+      <c r="T16" s="85" t="s">
         <v>133</v>
       </c>
-      <c r="U16" s="78"/>
-      <c r="V16" s="78"/>
-      <c r="W16" s="78"/>
-      <c r="X16" s="78"/>
-      <c r="Y16" s="78"/>
-      <c r="Z16" s="78"/>
-      <c r="AA16" s="78"/>
-      <c r="AB16" s="79"/>
-      <c r="AC16" s="71" t="s">
+      <c r="U16" s="80"/>
+      <c r="V16" s="80"/>
+      <c r="W16" s="80"/>
+      <c r="X16" s="80"/>
+      <c r="Y16" s="80"/>
+      <c r="Z16" s="80"/>
+      <c r="AA16" s="80"/>
+      <c r="AB16" s="81"/>
+      <c r="AC16" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="AD16" s="72"/>
-      <c r="AE16" s="72"/>
-      <c r="AF16" s="72"/>
-      <c r="AG16" s="72"/>
-      <c r="AH16" s="72"/>
-      <c r="AI16" s="72"/>
-      <c r="AJ16" s="72"/>
-      <c r="AK16" s="72"/>
-      <c r="AL16" s="72"/>
-      <c r="AM16" s="73"/>
+      <c r="AD16" s="89"/>
+      <c r="AE16" s="89"/>
+      <c r="AF16" s="89"/>
+      <c r="AG16" s="89"/>
+      <c r="AH16" s="89"/>
+      <c r="AI16" s="89"/>
+      <c r="AJ16" s="89"/>
+      <c r="AK16" s="89"/>
+      <c r="AL16" s="89"/>
+      <c r="AM16" s="90"/>
       <c r="AN16" s="49" t="s">
         <v>56</v>
       </c>
@@ -6688,33 +6688,33 @@
       <c r="J17" s="68"/>
       <c r="K17" s="68"/>
       <c r="L17" s="70"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="82"/>
-      <c r="T17" s="80"/>
-      <c r="U17" s="81"/>
-      <c r="V17" s="81"/>
-      <c r="W17" s="81"/>
-      <c r="X17" s="81"/>
-      <c r="Y17" s="81"/>
-      <c r="Z17" s="81"/>
-      <c r="AA17" s="81"/>
-      <c r="AB17" s="82"/>
-      <c r="AC17" s="83"/>
-      <c r="AD17" s="84"/>
-      <c r="AE17" s="84"/>
-      <c r="AF17" s="84"/>
-      <c r="AG17" s="84"/>
-      <c r="AH17" s="84"/>
-      <c r="AI17" s="84"/>
-      <c r="AJ17" s="84"/>
-      <c r="AK17" s="84"/>
-      <c r="AL17" s="84"/>
-      <c r="AM17" s="85"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="87"/>
+      <c r="S17" s="88"/>
+      <c r="T17" s="86"/>
+      <c r="U17" s="87"/>
+      <c r="V17" s="87"/>
+      <c r="W17" s="87"/>
+      <c r="X17" s="87"/>
+      <c r="Y17" s="87"/>
+      <c r="Z17" s="87"/>
+      <c r="AA17" s="87"/>
+      <c r="AB17" s="88"/>
+      <c r="AC17" s="141"/>
+      <c r="AD17" s="142"/>
+      <c r="AE17" s="142"/>
+      <c r="AF17" s="142"/>
+      <c r="AG17" s="142"/>
+      <c r="AH17" s="142"/>
+      <c r="AI17" s="142"/>
+      <c r="AJ17" s="142"/>
+      <c r="AK17" s="142"/>
+      <c r="AL17" s="142"/>
+      <c r="AM17" s="143"/>
       <c r="AN17" s="52"/>
       <c r="AO17" s="53"/>
       <c r="AP17" s="53"/>
@@ -6757,39 +6757,39 @@
       <c r="J18" s="66"/>
       <c r="K18" s="66"/>
       <c r="L18" s="69"/>
-      <c r="M18" s="72" t="s">
+      <c r="M18" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="N18" s="78"/>
-      <c r="O18" s="78"/>
-      <c r="P18" s="78"/>
-      <c r="Q18" s="78"/>
-      <c r="R18" s="78"/>
-      <c r="S18" s="79"/>
-      <c r="T18" s="77" t="s">
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="80"/>
+      <c r="Q18" s="80"/>
+      <c r="R18" s="80"/>
+      <c r="S18" s="81"/>
+      <c r="T18" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="U18" s="78"/>
-      <c r="V18" s="78"/>
-      <c r="W18" s="78"/>
-      <c r="X18" s="78"/>
-      <c r="Y18" s="78"/>
-      <c r="Z18" s="78"/>
-      <c r="AA18" s="78"/>
-      <c r="AB18" s="79"/>
-      <c r="AC18" s="71" t="s">
+      <c r="U18" s="80"/>
+      <c r="V18" s="80"/>
+      <c r="W18" s="80"/>
+      <c r="X18" s="80"/>
+      <c r="Y18" s="80"/>
+      <c r="Z18" s="80"/>
+      <c r="AA18" s="80"/>
+      <c r="AB18" s="81"/>
+      <c r="AC18" s="79" t="s">
         <v>131</v>
       </c>
-      <c r="AD18" s="72"/>
-      <c r="AE18" s="72"/>
-      <c r="AF18" s="72"/>
-      <c r="AG18" s="72"/>
-      <c r="AH18" s="72"/>
-      <c r="AI18" s="72"/>
-      <c r="AJ18" s="72"/>
-      <c r="AK18" s="72"/>
-      <c r="AL18" s="72"/>
-      <c r="AM18" s="73"/>
+      <c r="AD18" s="89"/>
+      <c r="AE18" s="89"/>
+      <c r="AF18" s="89"/>
+      <c r="AG18" s="89"/>
+      <c r="AH18" s="89"/>
+      <c r="AI18" s="89"/>
+      <c r="AJ18" s="89"/>
+      <c r="AK18" s="89"/>
+      <c r="AL18" s="89"/>
+      <c r="AM18" s="90"/>
       <c r="AN18" s="49" t="s">
         <v>56</v>
       </c>
@@ -6836,33 +6836,33 @@
       <c r="J19" s="68"/>
       <c r="K19" s="68"/>
       <c r="L19" s="70"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="81"/>
-      <c r="S19" s="82"/>
-      <c r="T19" s="80"/>
-      <c r="U19" s="81"/>
-      <c r="V19" s="81"/>
-      <c r="W19" s="81"/>
-      <c r="X19" s="81"/>
-      <c r="Y19" s="81"/>
-      <c r="Z19" s="81"/>
-      <c r="AA19" s="81"/>
-      <c r="AB19" s="82"/>
-      <c r="AC19" s="83"/>
-      <c r="AD19" s="84"/>
-      <c r="AE19" s="84"/>
-      <c r="AF19" s="84"/>
-      <c r="AG19" s="84"/>
-      <c r="AH19" s="84"/>
-      <c r="AI19" s="84"/>
-      <c r="AJ19" s="84"/>
-      <c r="AK19" s="84"/>
-      <c r="AL19" s="84"/>
-      <c r="AM19" s="85"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="87"/>
+      <c r="R19" s="87"/>
+      <c r="S19" s="88"/>
+      <c r="T19" s="86"/>
+      <c r="U19" s="87"/>
+      <c r="V19" s="87"/>
+      <c r="W19" s="87"/>
+      <c r="X19" s="87"/>
+      <c r="Y19" s="87"/>
+      <c r="Z19" s="87"/>
+      <c r="AA19" s="87"/>
+      <c r="AB19" s="88"/>
+      <c r="AC19" s="141"/>
+      <c r="AD19" s="142"/>
+      <c r="AE19" s="142"/>
+      <c r="AF19" s="142"/>
+      <c r="AG19" s="142"/>
+      <c r="AH19" s="142"/>
+      <c r="AI19" s="142"/>
+      <c r="AJ19" s="142"/>
+      <c r="AK19" s="142"/>
+      <c r="AL19" s="142"/>
+      <c r="AM19" s="143"/>
       <c r="AN19" s="52"/>
       <c r="AO19" s="53"/>
       <c r="AP19" s="53"/>
@@ -6905,39 +6905,39 @@
       <c r="J20" s="66"/>
       <c r="K20" s="66"/>
       <c r="L20" s="69"/>
-      <c r="M20" s="71" t="s">
+      <c r="M20" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="N20" s="72"/>
-      <c r="O20" s="72"/>
-      <c r="P20" s="72"/>
-      <c r="Q20" s="72"/>
-      <c r="R20" s="72"/>
-      <c r="S20" s="73"/>
-      <c r="T20" s="77" t="s">
+      <c r="N20" s="89"/>
+      <c r="O20" s="89"/>
+      <c r="P20" s="89"/>
+      <c r="Q20" s="89"/>
+      <c r="R20" s="89"/>
+      <c r="S20" s="90"/>
+      <c r="T20" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="U20" s="78"/>
-      <c r="V20" s="78"/>
-      <c r="W20" s="78"/>
-      <c r="X20" s="78"/>
-      <c r="Y20" s="78"/>
-      <c r="Z20" s="78"/>
-      <c r="AA20" s="78"/>
-      <c r="AB20" s="78"/>
-      <c r="AC20" s="71" t="s">
+      <c r="U20" s="80"/>
+      <c r="V20" s="80"/>
+      <c r="W20" s="80"/>
+      <c r="X20" s="80"/>
+      <c r="Y20" s="80"/>
+      <c r="Z20" s="80"/>
+      <c r="AA20" s="80"/>
+      <c r="AB20" s="80"/>
+      <c r="AC20" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="AD20" s="78"/>
-      <c r="AE20" s="78"/>
-      <c r="AF20" s="78"/>
-      <c r="AG20" s="78"/>
-      <c r="AH20" s="78"/>
-      <c r="AI20" s="78"/>
-      <c r="AJ20" s="78"/>
-      <c r="AK20" s="78"/>
-      <c r="AL20" s="78"/>
-      <c r="AM20" s="79"/>
+      <c r="AD20" s="80"/>
+      <c r="AE20" s="80"/>
+      <c r="AF20" s="80"/>
+      <c r="AG20" s="80"/>
+      <c r="AH20" s="80"/>
+      <c r="AI20" s="80"/>
+      <c r="AJ20" s="80"/>
+      <c r="AK20" s="80"/>
+      <c r="AL20" s="80"/>
+      <c r="AM20" s="81"/>
       <c r="AN20" s="49" t="s">
         <v>56</v>
       </c>
@@ -6984,33 +6984,33 @@
       <c r="J21" s="68"/>
       <c r="K21" s="68"/>
       <c r="L21" s="70"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="75"/>
-      <c r="P21" s="75"/>
-      <c r="Q21" s="75"/>
-      <c r="R21" s="75"/>
-      <c r="S21" s="76"/>
-      <c r="T21" s="80"/>
-      <c r="U21" s="81"/>
-      <c r="V21" s="81"/>
-      <c r="W21" s="81"/>
-      <c r="X21" s="81"/>
-      <c r="Y21" s="81"/>
-      <c r="Z21" s="81"/>
-      <c r="AA21" s="81"/>
-      <c r="AB21" s="81"/>
-      <c r="AC21" s="86"/>
-      <c r="AD21" s="87"/>
-      <c r="AE21" s="87"/>
-      <c r="AF21" s="87"/>
-      <c r="AG21" s="87"/>
-      <c r="AH21" s="87"/>
-      <c r="AI21" s="87"/>
-      <c r="AJ21" s="87"/>
-      <c r="AK21" s="87"/>
-      <c r="AL21" s="87"/>
-      <c r="AM21" s="88"/>
+      <c r="M21" s="91"/>
+      <c r="N21" s="92"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="92"/>
+      <c r="Q21" s="92"/>
+      <c r="R21" s="92"/>
+      <c r="S21" s="93"/>
+      <c r="T21" s="86"/>
+      <c r="U21" s="87"/>
+      <c r="V21" s="87"/>
+      <c r="W21" s="87"/>
+      <c r="X21" s="87"/>
+      <c r="Y21" s="87"/>
+      <c r="Z21" s="87"/>
+      <c r="AA21" s="87"/>
+      <c r="AB21" s="87"/>
+      <c r="AC21" s="82"/>
+      <c r="AD21" s="83"/>
+      <c r="AE21" s="83"/>
+      <c r="AF21" s="83"/>
+      <c r="AG21" s="83"/>
+      <c r="AH21" s="83"/>
+      <c r="AI21" s="83"/>
+      <c r="AJ21" s="83"/>
+      <c r="AK21" s="83"/>
+      <c r="AL21" s="83"/>
+      <c r="AM21" s="84"/>
       <c r="AN21" s="52"/>
       <c r="AO21" s="53"/>
       <c r="AP21" s="53"/>
@@ -7053,39 +7053,39 @@
       <c r="J22" s="66"/>
       <c r="K22" s="66"/>
       <c r="L22" s="69"/>
-      <c r="M22" s="71" t="s">
+      <c r="M22" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="N22" s="72"/>
-      <c r="O22" s="72"/>
-      <c r="P22" s="72"/>
-      <c r="Q22" s="72"/>
-      <c r="R22" s="72"/>
-      <c r="S22" s="73"/>
-      <c r="T22" s="77" t="s">
+      <c r="N22" s="89"/>
+      <c r="O22" s="89"/>
+      <c r="P22" s="89"/>
+      <c r="Q22" s="89"/>
+      <c r="R22" s="89"/>
+      <c r="S22" s="90"/>
+      <c r="T22" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="U22" s="78"/>
-      <c r="V22" s="78"/>
-      <c r="W22" s="78"/>
-      <c r="X22" s="78"/>
-      <c r="Y22" s="78"/>
-      <c r="Z22" s="78"/>
-      <c r="AA22" s="78"/>
-      <c r="AB22" s="78"/>
-      <c r="AC22" s="71" t="s">
+      <c r="U22" s="80"/>
+      <c r="V22" s="80"/>
+      <c r="W22" s="80"/>
+      <c r="X22" s="80"/>
+      <c r="Y22" s="80"/>
+      <c r="Z22" s="80"/>
+      <c r="AA22" s="80"/>
+      <c r="AB22" s="80"/>
+      <c r="AC22" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="AD22" s="78"/>
-      <c r="AE22" s="78"/>
-      <c r="AF22" s="78"/>
-      <c r="AG22" s="78"/>
-      <c r="AH22" s="78"/>
-      <c r="AI22" s="78"/>
-      <c r="AJ22" s="78"/>
-      <c r="AK22" s="78"/>
-      <c r="AL22" s="78"/>
-      <c r="AM22" s="79"/>
+      <c r="AD22" s="80"/>
+      <c r="AE22" s="80"/>
+      <c r="AF22" s="80"/>
+      <c r="AG22" s="80"/>
+      <c r="AH22" s="80"/>
+      <c r="AI22" s="80"/>
+      <c r="AJ22" s="80"/>
+      <c r="AK22" s="80"/>
+      <c r="AL22" s="80"/>
+      <c r="AM22" s="81"/>
       <c r="AN22" s="49" t="s">
         <v>56</v>
       </c>
@@ -7132,33 +7132,33 @@
       <c r="J23" s="68"/>
       <c r="K23" s="68"/>
       <c r="L23" s="70"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="75"/>
-      <c r="O23" s="75"/>
-      <c r="P23" s="75"/>
-      <c r="Q23" s="75"/>
-      <c r="R23" s="75"/>
-      <c r="S23" s="76"/>
-      <c r="T23" s="80"/>
-      <c r="U23" s="81"/>
-      <c r="V23" s="81"/>
-      <c r="W23" s="81"/>
-      <c r="X23" s="81"/>
-      <c r="Y23" s="81"/>
-      <c r="Z23" s="81"/>
-      <c r="AA23" s="81"/>
-      <c r="AB23" s="81"/>
-      <c r="AC23" s="86"/>
-      <c r="AD23" s="87"/>
-      <c r="AE23" s="87"/>
-      <c r="AF23" s="87"/>
-      <c r="AG23" s="87"/>
-      <c r="AH23" s="87"/>
-      <c r="AI23" s="87"/>
-      <c r="AJ23" s="87"/>
-      <c r="AK23" s="87"/>
-      <c r="AL23" s="87"/>
-      <c r="AM23" s="88"/>
+      <c r="M23" s="91"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="92"/>
+      <c r="Q23" s="92"/>
+      <c r="R23" s="92"/>
+      <c r="S23" s="93"/>
+      <c r="T23" s="86"/>
+      <c r="U23" s="87"/>
+      <c r="V23" s="87"/>
+      <c r="W23" s="87"/>
+      <c r="X23" s="87"/>
+      <c r="Y23" s="87"/>
+      <c r="Z23" s="87"/>
+      <c r="AA23" s="87"/>
+      <c r="AB23" s="87"/>
+      <c r="AC23" s="82"/>
+      <c r="AD23" s="83"/>
+      <c r="AE23" s="83"/>
+      <c r="AF23" s="83"/>
+      <c r="AG23" s="83"/>
+      <c r="AH23" s="83"/>
+      <c r="AI23" s="83"/>
+      <c r="AJ23" s="83"/>
+      <c r="AK23" s="83"/>
+      <c r="AL23" s="83"/>
+      <c r="AM23" s="84"/>
       <c r="AN23" s="52"/>
       <c r="AO23" s="53"/>
       <c r="AP23" s="53"/>
@@ -7201,39 +7201,39 @@
       <c r="J24" s="66"/>
       <c r="K24" s="66"/>
       <c r="L24" s="69"/>
-      <c r="M24" s="71" t="s">
+      <c r="M24" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="72"/>
-      <c r="R24" s="72"/>
-      <c r="S24" s="73"/>
-      <c r="T24" s="77" t="s">
+      <c r="N24" s="89"/>
+      <c r="O24" s="89"/>
+      <c r="P24" s="89"/>
+      <c r="Q24" s="89"/>
+      <c r="R24" s="89"/>
+      <c r="S24" s="90"/>
+      <c r="T24" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="U24" s="78"/>
-      <c r="V24" s="78"/>
-      <c r="W24" s="78"/>
-      <c r="X24" s="78"/>
-      <c r="Y24" s="78"/>
-      <c r="Z24" s="78"/>
-      <c r="AA24" s="78"/>
-      <c r="AB24" s="79"/>
-      <c r="AC24" s="71" t="s">
+      <c r="U24" s="80"/>
+      <c r="V24" s="80"/>
+      <c r="W24" s="80"/>
+      <c r="X24" s="80"/>
+      <c r="Y24" s="80"/>
+      <c r="Z24" s="80"/>
+      <c r="AA24" s="80"/>
+      <c r="AB24" s="81"/>
+      <c r="AC24" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="AD24" s="72"/>
-      <c r="AE24" s="72"/>
-      <c r="AF24" s="72"/>
-      <c r="AG24" s="72"/>
-      <c r="AH24" s="72"/>
-      <c r="AI24" s="72"/>
-      <c r="AJ24" s="72"/>
-      <c r="AK24" s="72"/>
-      <c r="AL24" s="72"/>
-      <c r="AM24" s="73"/>
+      <c r="AD24" s="89"/>
+      <c r="AE24" s="89"/>
+      <c r="AF24" s="89"/>
+      <c r="AG24" s="89"/>
+      <c r="AH24" s="89"/>
+      <c r="AI24" s="89"/>
+      <c r="AJ24" s="89"/>
+      <c r="AK24" s="89"/>
+      <c r="AL24" s="89"/>
+      <c r="AM24" s="90"/>
       <c r="AN24" s="49" t="s">
         <v>56</v>
       </c>
@@ -7255,16 +7255,16 @@
       </c>
       <c r="AY24" s="50"/>
       <c r="AZ24" s="51"/>
-      <c r="BA24" s="89" t="s">
+      <c r="BA24" s="144" t="s">
         <v>75</v>
       </c>
-      <c r="BB24" s="90"/>
-      <c r="BC24" s="90"/>
-      <c r="BD24" s="90"/>
-      <c r="BE24" s="90"/>
-      <c r="BF24" s="90"/>
-      <c r="BG24" s="90"/>
-      <c r="BH24" s="91"/>
+      <c r="BB24" s="145"/>
+      <c r="BC24" s="145"/>
+      <c r="BD24" s="145"/>
+      <c r="BE24" s="145"/>
+      <c r="BF24" s="145"/>
+      <c r="BG24" s="145"/>
+      <c r="BH24" s="146"/>
       <c r="BI24" s="10"/>
     </row>
     <row r="25" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
@@ -7280,33 +7280,33 @@
       <c r="J25" s="68"/>
       <c r="K25" s="68"/>
       <c r="L25" s="70"/>
-      <c r="M25" s="74"/>
-      <c r="N25" s="75"/>
-      <c r="O25" s="75"/>
-      <c r="P25" s="75"/>
-      <c r="Q25" s="75"/>
-      <c r="R25" s="75"/>
-      <c r="S25" s="76"/>
-      <c r="T25" s="80"/>
-      <c r="U25" s="81"/>
-      <c r="V25" s="81"/>
-      <c r="W25" s="81"/>
-      <c r="X25" s="81"/>
-      <c r="Y25" s="81"/>
-      <c r="Z25" s="81"/>
-      <c r="AA25" s="81"/>
-      <c r="AB25" s="82"/>
-      <c r="AC25" s="83"/>
-      <c r="AD25" s="84"/>
-      <c r="AE25" s="84"/>
-      <c r="AF25" s="84"/>
-      <c r="AG25" s="84"/>
-      <c r="AH25" s="84"/>
-      <c r="AI25" s="84"/>
-      <c r="AJ25" s="84"/>
-      <c r="AK25" s="84"/>
-      <c r="AL25" s="84"/>
-      <c r="AM25" s="85"/>
+      <c r="M25" s="91"/>
+      <c r="N25" s="92"/>
+      <c r="O25" s="92"/>
+      <c r="P25" s="92"/>
+      <c r="Q25" s="92"/>
+      <c r="R25" s="92"/>
+      <c r="S25" s="93"/>
+      <c r="T25" s="86"/>
+      <c r="U25" s="87"/>
+      <c r="V25" s="87"/>
+      <c r="W25" s="87"/>
+      <c r="X25" s="87"/>
+      <c r="Y25" s="87"/>
+      <c r="Z25" s="87"/>
+      <c r="AA25" s="87"/>
+      <c r="AB25" s="88"/>
+      <c r="AC25" s="141"/>
+      <c r="AD25" s="142"/>
+      <c r="AE25" s="142"/>
+      <c r="AF25" s="142"/>
+      <c r="AG25" s="142"/>
+      <c r="AH25" s="142"/>
+      <c r="AI25" s="142"/>
+      <c r="AJ25" s="142"/>
+      <c r="AK25" s="142"/>
+      <c r="AL25" s="142"/>
+      <c r="AM25" s="143"/>
       <c r="AN25" s="52"/>
       <c r="AO25" s="53"/>
       <c r="AP25" s="53"/>
@@ -7351,39 +7351,39 @@
       <c r="J26" s="66"/>
       <c r="K26" s="66"/>
       <c r="L26" s="69"/>
-      <c r="M26" s="71" t="s">
+      <c r="M26" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="N26" s="72"/>
-      <c r="O26" s="72"/>
-      <c r="P26" s="72"/>
-      <c r="Q26" s="72"/>
-      <c r="R26" s="72"/>
-      <c r="S26" s="73"/>
-      <c r="T26" s="77" t="s">
+      <c r="N26" s="89"/>
+      <c r="O26" s="89"/>
+      <c r="P26" s="89"/>
+      <c r="Q26" s="89"/>
+      <c r="R26" s="89"/>
+      <c r="S26" s="90"/>
+      <c r="T26" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="U26" s="78"/>
-      <c r="V26" s="78"/>
-      <c r="W26" s="78"/>
-      <c r="X26" s="78"/>
-      <c r="Y26" s="78"/>
-      <c r="Z26" s="78"/>
-      <c r="AA26" s="78"/>
-      <c r="AB26" s="78"/>
-      <c r="AC26" s="71" t="s">
+      <c r="U26" s="80"/>
+      <c r="V26" s="80"/>
+      <c r="W26" s="80"/>
+      <c r="X26" s="80"/>
+      <c r="Y26" s="80"/>
+      <c r="Z26" s="80"/>
+      <c r="AA26" s="80"/>
+      <c r="AB26" s="80"/>
+      <c r="AC26" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="AD26" s="78"/>
-      <c r="AE26" s="78"/>
-      <c r="AF26" s="78"/>
-      <c r="AG26" s="78"/>
-      <c r="AH26" s="78"/>
-      <c r="AI26" s="78"/>
-      <c r="AJ26" s="78"/>
-      <c r="AK26" s="78"/>
-      <c r="AL26" s="78"/>
-      <c r="AM26" s="79"/>
+      <c r="AD26" s="80"/>
+      <c r="AE26" s="80"/>
+      <c r="AF26" s="80"/>
+      <c r="AG26" s="80"/>
+      <c r="AH26" s="80"/>
+      <c r="AI26" s="80"/>
+      <c r="AJ26" s="80"/>
+      <c r="AK26" s="80"/>
+      <c r="AL26" s="80"/>
+      <c r="AM26" s="81"/>
       <c r="AN26" s="49" t="s">
         <v>56</v>
       </c>
@@ -7430,33 +7430,33 @@
       <c r="J27" s="68"/>
       <c r="K27" s="68"/>
       <c r="L27" s="70"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="75"/>
-      <c r="R27" s="75"/>
-      <c r="S27" s="76"/>
-      <c r="T27" s="80"/>
-      <c r="U27" s="81"/>
-      <c r="V27" s="81"/>
-      <c r="W27" s="81"/>
-      <c r="X27" s="81"/>
-      <c r="Y27" s="81"/>
-      <c r="Z27" s="81"/>
-      <c r="AA27" s="81"/>
-      <c r="AB27" s="81"/>
-      <c r="AC27" s="86"/>
-      <c r="AD27" s="87"/>
-      <c r="AE27" s="87"/>
-      <c r="AF27" s="87"/>
-      <c r="AG27" s="87"/>
-      <c r="AH27" s="87"/>
-      <c r="AI27" s="87"/>
-      <c r="AJ27" s="87"/>
-      <c r="AK27" s="87"/>
-      <c r="AL27" s="87"/>
-      <c r="AM27" s="88"/>
+      <c r="M27" s="91"/>
+      <c r="N27" s="92"/>
+      <c r="O27" s="92"/>
+      <c r="P27" s="92"/>
+      <c r="Q27" s="92"/>
+      <c r="R27" s="92"/>
+      <c r="S27" s="93"/>
+      <c r="T27" s="86"/>
+      <c r="U27" s="87"/>
+      <c r="V27" s="87"/>
+      <c r="W27" s="87"/>
+      <c r="X27" s="87"/>
+      <c r="Y27" s="87"/>
+      <c r="Z27" s="87"/>
+      <c r="AA27" s="87"/>
+      <c r="AB27" s="87"/>
+      <c r="AC27" s="82"/>
+      <c r="AD27" s="83"/>
+      <c r="AE27" s="83"/>
+      <c r="AF27" s="83"/>
+      <c r="AG27" s="83"/>
+      <c r="AH27" s="83"/>
+      <c r="AI27" s="83"/>
+      <c r="AJ27" s="83"/>
+      <c r="AK27" s="83"/>
+      <c r="AL27" s="83"/>
+      <c r="AM27" s="84"/>
       <c r="AN27" s="52"/>
       <c r="AO27" s="53"/>
       <c r="AP27" s="53"/>
@@ -7499,39 +7499,39 @@
       <c r="J28" s="66"/>
       <c r="K28" s="66"/>
       <c r="L28" s="69"/>
-      <c r="M28" s="71" t="s">
+      <c r="M28" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="N28" s="72"/>
-      <c r="O28" s="72"/>
-      <c r="P28" s="72"/>
-      <c r="Q28" s="72"/>
-      <c r="R28" s="72"/>
-      <c r="S28" s="73"/>
-      <c r="T28" s="77" t="s">
+      <c r="N28" s="89"/>
+      <c r="O28" s="89"/>
+      <c r="P28" s="89"/>
+      <c r="Q28" s="89"/>
+      <c r="R28" s="89"/>
+      <c r="S28" s="90"/>
+      <c r="T28" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="U28" s="78"/>
-      <c r="V28" s="78"/>
-      <c r="W28" s="78"/>
-      <c r="X28" s="78"/>
-      <c r="Y28" s="78"/>
-      <c r="Z28" s="78"/>
-      <c r="AA28" s="78"/>
-      <c r="AB28" s="79"/>
-      <c r="AC28" s="71" t="s">
+      <c r="U28" s="80"/>
+      <c r="V28" s="80"/>
+      <c r="W28" s="80"/>
+      <c r="X28" s="80"/>
+      <c r="Y28" s="80"/>
+      <c r="Z28" s="80"/>
+      <c r="AA28" s="80"/>
+      <c r="AB28" s="81"/>
+      <c r="AC28" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="AD28" s="72"/>
-      <c r="AE28" s="72"/>
-      <c r="AF28" s="72"/>
-      <c r="AG28" s="72"/>
-      <c r="AH28" s="72"/>
-      <c r="AI28" s="72"/>
-      <c r="AJ28" s="72"/>
-      <c r="AK28" s="72"/>
-      <c r="AL28" s="72"/>
-      <c r="AM28" s="73"/>
+      <c r="AD28" s="89"/>
+      <c r="AE28" s="89"/>
+      <c r="AF28" s="89"/>
+      <c r="AG28" s="89"/>
+      <c r="AH28" s="89"/>
+      <c r="AI28" s="89"/>
+      <c r="AJ28" s="89"/>
+      <c r="AK28" s="89"/>
+      <c r="AL28" s="89"/>
+      <c r="AM28" s="90"/>
       <c r="AN28" s="49" t="s">
         <v>56</v>
       </c>
@@ -7578,33 +7578,33 @@
       <c r="J29" s="68"/>
       <c r="K29" s="68"/>
       <c r="L29" s="70"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="75"/>
-      <c r="P29" s="75"/>
-      <c r="Q29" s="75"/>
-      <c r="R29" s="75"/>
-      <c r="S29" s="76"/>
-      <c r="T29" s="80"/>
-      <c r="U29" s="81"/>
-      <c r="V29" s="81"/>
-      <c r="W29" s="81"/>
-      <c r="X29" s="81"/>
-      <c r="Y29" s="81"/>
-      <c r="Z29" s="81"/>
-      <c r="AA29" s="81"/>
-      <c r="AB29" s="82"/>
-      <c r="AC29" s="83"/>
-      <c r="AD29" s="84"/>
-      <c r="AE29" s="84"/>
-      <c r="AF29" s="84"/>
-      <c r="AG29" s="84"/>
-      <c r="AH29" s="84"/>
-      <c r="AI29" s="84"/>
-      <c r="AJ29" s="84"/>
-      <c r="AK29" s="84"/>
-      <c r="AL29" s="84"/>
-      <c r="AM29" s="85"/>
+      <c r="M29" s="91"/>
+      <c r="N29" s="92"/>
+      <c r="O29" s="92"/>
+      <c r="P29" s="92"/>
+      <c r="Q29" s="92"/>
+      <c r="R29" s="92"/>
+      <c r="S29" s="93"/>
+      <c r="T29" s="86"/>
+      <c r="U29" s="87"/>
+      <c r="V29" s="87"/>
+      <c r="W29" s="87"/>
+      <c r="X29" s="87"/>
+      <c r="Y29" s="87"/>
+      <c r="Z29" s="87"/>
+      <c r="AA29" s="87"/>
+      <c r="AB29" s="88"/>
+      <c r="AC29" s="141"/>
+      <c r="AD29" s="142"/>
+      <c r="AE29" s="142"/>
+      <c r="AF29" s="142"/>
+      <c r="AG29" s="142"/>
+      <c r="AH29" s="142"/>
+      <c r="AI29" s="142"/>
+      <c r="AJ29" s="142"/>
+      <c r="AK29" s="142"/>
+      <c r="AL29" s="142"/>
+      <c r="AM29" s="143"/>
       <c r="AN29" s="52"/>
       <c r="AO29" s="53"/>
       <c r="AP29" s="53"/>
@@ -7647,39 +7647,39 @@
       <c r="J30" s="66"/>
       <c r="K30" s="66"/>
       <c r="L30" s="69"/>
-      <c r="M30" s="71" t="s">
+      <c r="M30" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="N30" s="72"/>
-      <c r="O30" s="72"/>
-      <c r="P30" s="72"/>
-      <c r="Q30" s="72"/>
-      <c r="R30" s="72"/>
-      <c r="S30" s="73"/>
-      <c r="T30" s="77" t="s">
+      <c r="N30" s="89"/>
+      <c r="O30" s="89"/>
+      <c r="P30" s="89"/>
+      <c r="Q30" s="89"/>
+      <c r="R30" s="89"/>
+      <c r="S30" s="90"/>
+      <c r="T30" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="U30" s="78"/>
-      <c r="V30" s="78"/>
-      <c r="W30" s="78"/>
-      <c r="X30" s="78"/>
-      <c r="Y30" s="78"/>
-      <c r="Z30" s="78"/>
-      <c r="AA30" s="78"/>
-      <c r="AB30" s="79"/>
-      <c r="AC30" s="71" t="s">
+      <c r="U30" s="80"/>
+      <c r="V30" s="80"/>
+      <c r="W30" s="80"/>
+      <c r="X30" s="80"/>
+      <c r="Y30" s="80"/>
+      <c r="Z30" s="80"/>
+      <c r="AA30" s="80"/>
+      <c r="AB30" s="81"/>
+      <c r="AC30" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="AD30" s="72"/>
-      <c r="AE30" s="72"/>
-      <c r="AF30" s="72"/>
-      <c r="AG30" s="72"/>
-      <c r="AH30" s="72"/>
-      <c r="AI30" s="72"/>
-      <c r="AJ30" s="72"/>
-      <c r="AK30" s="72"/>
-      <c r="AL30" s="72"/>
-      <c r="AM30" s="73"/>
+      <c r="AD30" s="89"/>
+      <c r="AE30" s="89"/>
+      <c r="AF30" s="89"/>
+      <c r="AG30" s="89"/>
+      <c r="AH30" s="89"/>
+      <c r="AI30" s="89"/>
+      <c r="AJ30" s="89"/>
+      <c r="AK30" s="89"/>
+      <c r="AL30" s="89"/>
+      <c r="AM30" s="90"/>
       <c r="AN30" s="49" t="s">
         <v>56</v>
       </c>
@@ -7726,33 +7726,33 @@
       <c r="J31" s="68"/>
       <c r="K31" s="68"/>
       <c r="L31" s="70"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="75"/>
-      <c r="O31" s="75"/>
-      <c r="P31" s="75"/>
-      <c r="Q31" s="75"/>
-      <c r="R31" s="75"/>
-      <c r="S31" s="76"/>
-      <c r="T31" s="80"/>
-      <c r="U31" s="81"/>
-      <c r="V31" s="81"/>
-      <c r="W31" s="81"/>
-      <c r="X31" s="81"/>
-      <c r="Y31" s="81"/>
-      <c r="Z31" s="81"/>
-      <c r="AA31" s="81"/>
-      <c r="AB31" s="82"/>
-      <c r="AC31" s="83"/>
-      <c r="AD31" s="84"/>
-      <c r="AE31" s="84"/>
-      <c r="AF31" s="84"/>
-      <c r="AG31" s="84"/>
-      <c r="AH31" s="84"/>
-      <c r="AI31" s="84"/>
-      <c r="AJ31" s="84"/>
-      <c r="AK31" s="84"/>
-      <c r="AL31" s="84"/>
-      <c r="AM31" s="85"/>
+      <c r="M31" s="91"/>
+      <c r="N31" s="92"/>
+      <c r="O31" s="92"/>
+      <c r="P31" s="92"/>
+      <c r="Q31" s="92"/>
+      <c r="R31" s="92"/>
+      <c r="S31" s="93"/>
+      <c r="T31" s="86"/>
+      <c r="U31" s="87"/>
+      <c r="V31" s="87"/>
+      <c r="W31" s="87"/>
+      <c r="X31" s="87"/>
+      <c r="Y31" s="87"/>
+      <c r="Z31" s="87"/>
+      <c r="AA31" s="87"/>
+      <c r="AB31" s="88"/>
+      <c r="AC31" s="141"/>
+      <c r="AD31" s="142"/>
+      <c r="AE31" s="142"/>
+      <c r="AF31" s="142"/>
+      <c r="AG31" s="142"/>
+      <c r="AH31" s="142"/>
+      <c r="AI31" s="142"/>
+      <c r="AJ31" s="142"/>
+      <c r="AK31" s="142"/>
+      <c r="AL31" s="142"/>
+      <c r="AM31" s="143"/>
       <c r="AN31" s="52"/>
       <c r="AO31" s="53"/>
       <c r="AP31" s="53"/>
@@ -7795,39 +7795,39 @@
       <c r="J32" s="66"/>
       <c r="K32" s="66"/>
       <c r="L32" s="69"/>
-      <c r="M32" s="71" t="s">
+      <c r="M32" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="N32" s="72"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="72"/>
-      <c r="Q32" s="72"/>
-      <c r="R32" s="72"/>
-      <c r="S32" s="73"/>
-      <c r="T32" s="77" t="s">
+      <c r="N32" s="89"/>
+      <c r="O32" s="89"/>
+      <c r="P32" s="89"/>
+      <c r="Q32" s="89"/>
+      <c r="R32" s="89"/>
+      <c r="S32" s="90"/>
+      <c r="T32" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="U32" s="78"/>
-      <c r="V32" s="78"/>
-      <c r="W32" s="78"/>
-      <c r="X32" s="78"/>
-      <c r="Y32" s="78"/>
-      <c r="Z32" s="78"/>
-      <c r="AA32" s="78"/>
-      <c r="AB32" s="79"/>
-      <c r="AC32" s="71" t="s">
+      <c r="U32" s="80"/>
+      <c r="V32" s="80"/>
+      <c r="W32" s="80"/>
+      <c r="X32" s="80"/>
+      <c r="Y32" s="80"/>
+      <c r="Z32" s="80"/>
+      <c r="AA32" s="80"/>
+      <c r="AB32" s="81"/>
+      <c r="AC32" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="AD32" s="72"/>
-      <c r="AE32" s="72"/>
-      <c r="AF32" s="72"/>
-      <c r="AG32" s="72"/>
-      <c r="AH32" s="72"/>
-      <c r="AI32" s="72"/>
-      <c r="AJ32" s="72"/>
-      <c r="AK32" s="72"/>
-      <c r="AL32" s="72"/>
-      <c r="AM32" s="73"/>
+      <c r="AD32" s="89"/>
+      <c r="AE32" s="89"/>
+      <c r="AF32" s="89"/>
+      <c r="AG32" s="89"/>
+      <c r="AH32" s="89"/>
+      <c r="AI32" s="89"/>
+      <c r="AJ32" s="89"/>
+      <c r="AK32" s="89"/>
+      <c r="AL32" s="89"/>
+      <c r="AM32" s="90"/>
       <c r="AN32" s="49" t="s">
         <v>56</v>
       </c>
@@ -7874,33 +7874,33 @@
       <c r="J33" s="68"/>
       <c r="K33" s="68"/>
       <c r="L33" s="70"/>
-      <c r="M33" s="74"/>
-      <c r="N33" s="75"/>
-      <c r="O33" s="75"/>
-      <c r="P33" s="75"/>
-      <c r="Q33" s="75"/>
-      <c r="R33" s="75"/>
-      <c r="S33" s="76"/>
-      <c r="T33" s="80"/>
-      <c r="U33" s="81"/>
-      <c r="V33" s="81"/>
-      <c r="W33" s="81"/>
-      <c r="X33" s="81"/>
-      <c r="Y33" s="81"/>
-      <c r="Z33" s="81"/>
-      <c r="AA33" s="81"/>
-      <c r="AB33" s="82"/>
-      <c r="AC33" s="83"/>
-      <c r="AD33" s="84"/>
-      <c r="AE33" s="84"/>
-      <c r="AF33" s="84"/>
-      <c r="AG33" s="84"/>
-      <c r="AH33" s="84"/>
-      <c r="AI33" s="84"/>
-      <c r="AJ33" s="84"/>
-      <c r="AK33" s="84"/>
-      <c r="AL33" s="84"/>
-      <c r="AM33" s="85"/>
+      <c r="M33" s="91"/>
+      <c r="N33" s="92"/>
+      <c r="O33" s="92"/>
+      <c r="P33" s="92"/>
+      <c r="Q33" s="92"/>
+      <c r="R33" s="92"/>
+      <c r="S33" s="93"/>
+      <c r="T33" s="86"/>
+      <c r="U33" s="87"/>
+      <c r="V33" s="87"/>
+      <c r="W33" s="87"/>
+      <c r="X33" s="87"/>
+      <c r="Y33" s="87"/>
+      <c r="Z33" s="87"/>
+      <c r="AA33" s="87"/>
+      <c r="AB33" s="88"/>
+      <c r="AC33" s="141"/>
+      <c r="AD33" s="142"/>
+      <c r="AE33" s="142"/>
+      <c r="AF33" s="142"/>
+      <c r="AG33" s="142"/>
+      <c r="AH33" s="142"/>
+      <c r="AI33" s="142"/>
+      <c r="AJ33" s="142"/>
+      <c r="AK33" s="142"/>
+      <c r="AL33" s="142"/>
+      <c r="AM33" s="143"/>
       <c r="AN33" s="52"/>
       <c r="AO33" s="53"/>
       <c r="AP33" s="53"/>
@@ -7943,39 +7943,39 @@
       <c r="J34" s="66"/>
       <c r="K34" s="66"/>
       <c r="L34" s="69"/>
-      <c r="M34" s="71" t="s">
+      <c r="M34" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="N34" s="72"/>
-      <c r="O34" s="72"/>
-      <c r="P34" s="72"/>
-      <c r="Q34" s="72"/>
-      <c r="R34" s="72"/>
-      <c r="S34" s="73"/>
-      <c r="T34" s="77" t="s">
+      <c r="N34" s="89"/>
+      <c r="O34" s="89"/>
+      <c r="P34" s="89"/>
+      <c r="Q34" s="89"/>
+      <c r="R34" s="89"/>
+      <c r="S34" s="90"/>
+      <c r="T34" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="U34" s="78"/>
-      <c r="V34" s="78"/>
-      <c r="W34" s="78"/>
-      <c r="X34" s="78"/>
-      <c r="Y34" s="78"/>
-      <c r="Z34" s="78"/>
-      <c r="AA34" s="78"/>
-      <c r="AB34" s="79"/>
-      <c r="AC34" s="71" t="s">
+      <c r="U34" s="80"/>
+      <c r="V34" s="80"/>
+      <c r="W34" s="80"/>
+      <c r="X34" s="80"/>
+      <c r="Y34" s="80"/>
+      <c r="Z34" s="80"/>
+      <c r="AA34" s="80"/>
+      <c r="AB34" s="81"/>
+      <c r="AC34" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="AD34" s="72"/>
-      <c r="AE34" s="72"/>
-      <c r="AF34" s="72"/>
-      <c r="AG34" s="72"/>
-      <c r="AH34" s="72"/>
-      <c r="AI34" s="72"/>
-      <c r="AJ34" s="72"/>
-      <c r="AK34" s="72"/>
-      <c r="AL34" s="72"/>
-      <c r="AM34" s="73"/>
+      <c r="AD34" s="89"/>
+      <c r="AE34" s="89"/>
+      <c r="AF34" s="89"/>
+      <c r="AG34" s="89"/>
+      <c r="AH34" s="89"/>
+      <c r="AI34" s="89"/>
+      <c r="AJ34" s="89"/>
+      <c r="AK34" s="89"/>
+      <c r="AL34" s="89"/>
+      <c r="AM34" s="90"/>
       <c r="AN34" s="49" t="s">
         <v>56</v>
       </c>
@@ -8022,33 +8022,33 @@
       <c r="J35" s="68"/>
       <c r="K35" s="68"/>
       <c r="L35" s="70"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="75"/>
-      <c r="O35" s="75"/>
-      <c r="P35" s="75"/>
-      <c r="Q35" s="75"/>
-      <c r="R35" s="75"/>
-      <c r="S35" s="76"/>
-      <c r="T35" s="80"/>
-      <c r="U35" s="81"/>
-      <c r="V35" s="81"/>
-      <c r="W35" s="81"/>
-      <c r="X35" s="81"/>
-      <c r="Y35" s="81"/>
-      <c r="Z35" s="81"/>
-      <c r="AA35" s="81"/>
-      <c r="AB35" s="82"/>
-      <c r="AC35" s="83"/>
-      <c r="AD35" s="84"/>
-      <c r="AE35" s="84"/>
-      <c r="AF35" s="84"/>
-      <c r="AG35" s="84"/>
-      <c r="AH35" s="84"/>
-      <c r="AI35" s="84"/>
-      <c r="AJ35" s="84"/>
-      <c r="AK35" s="84"/>
-      <c r="AL35" s="84"/>
-      <c r="AM35" s="85"/>
+      <c r="M35" s="91"/>
+      <c r="N35" s="92"/>
+      <c r="O35" s="92"/>
+      <c r="P35" s="92"/>
+      <c r="Q35" s="92"/>
+      <c r="R35" s="92"/>
+      <c r="S35" s="93"/>
+      <c r="T35" s="86"/>
+      <c r="U35" s="87"/>
+      <c r="V35" s="87"/>
+      <c r="W35" s="87"/>
+      <c r="X35" s="87"/>
+      <c r="Y35" s="87"/>
+      <c r="Z35" s="87"/>
+      <c r="AA35" s="87"/>
+      <c r="AB35" s="88"/>
+      <c r="AC35" s="141"/>
+      <c r="AD35" s="142"/>
+      <c r="AE35" s="142"/>
+      <c r="AF35" s="142"/>
+      <c r="AG35" s="142"/>
+      <c r="AH35" s="142"/>
+      <c r="AI35" s="142"/>
+      <c r="AJ35" s="142"/>
+      <c r="AK35" s="142"/>
+      <c r="AL35" s="142"/>
+      <c r="AM35" s="143"/>
       <c r="AN35" s="52"/>
       <c r="AO35" s="53"/>
       <c r="AP35" s="53"/>
@@ -8091,39 +8091,39 @@
       <c r="J36" s="66"/>
       <c r="K36" s="66"/>
       <c r="L36" s="69"/>
-      <c r="M36" s="71" t="s">
+      <c r="M36" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="N36" s="72"/>
-      <c r="O36" s="72"/>
-      <c r="P36" s="72"/>
-      <c r="Q36" s="72"/>
-      <c r="R36" s="72"/>
-      <c r="S36" s="73"/>
-      <c r="T36" s="77" t="s">
+      <c r="N36" s="89"/>
+      <c r="O36" s="89"/>
+      <c r="P36" s="89"/>
+      <c r="Q36" s="89"/>
+      <c r="R36" s="89"/>
+      <c r="S36" s="90"/>
+      <c r="T36" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="U36" s="78"/>
-      <c r="V36" s="78"/>
-      <c r="W36" s="78"/>
-      <c r="X36" s="78"/>
-      <c r="Y36" s="78"/>
-      <c r="Z36" s="78"/>
-      <c r="AA36" s="78"/>
-      <c r="AB36" s="79"/>
-      <c r="AC36" s="71" t="s">
+      <c r="U36" s="80"/>
+      <c r="V36" s="80"/>
+      <c r="W36" s="80"/>
+      <c r="X36" s="80"/>
+      <c r="Y36" s="80"/>
+      <c r="Z36" s="80"/>
+      <c r="AA36" s="80"/>
+      <c r="AB36" s="81"/>
+      <c r="AC36" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="AD36" s="72"/>
-      <c r="AE36" s="72"/>
-      <c r="AF36" s="72"/>
-      <c r="AG36" s="72"/>
-      <c r="AH36" s="72"/>
-      <c r="AI36" s="72"/>
-      <c r="AJ36" s="72"/>
-      <c r="AK36" s="72"/>
-      <c r="AL36" s="72"/>
-      <c r="AM36" s="73"/>
+      <c r="AD36" s="89"/>
+      <c r="AE36" s="89"/>
+      <c r="AF36" s="89"/>
+      <c r="AG36" s="89"/>
+      <c r="AH36" s="89"/>
+      <c r="AI36" s="89"/>
+      <c r="AJ36" s="89"/>
+      <c r="AK36" s="89"/>
+      <c r="AL36" s="89"/>
+      <c r="AM36" s="90"/>
       <c r="AN36" s="49" t="s">
         <v>56</v>
       </c>
@@ -8170,33 +8170,33 @@
       <c r="J37" s="68"/>
       <c r="K37" s="68"/>
       <c r="L37" s="70"/>
-      <c r="M37" s="74"/>
-      <c r="N37" s="75"/>
-      <c r="O37" s="75"/>
-      <c r="P37" s="75"/>
-      <c r="Q37" s="75"/>
-      <c r="R37" s="75"/>
-      <c r="S37" s="76"/>
-      <c r="T37" s="80"/>
-      <c r="U37" s="81"/>
-      <c r="V37" s="81"/>
-      <c r="W37" s="81"/>
-      <c r="X37" s="81"/>
-      <c r="Y37" s="81"/>
-      <c r="Z37" s="81"/>
-      <c r="AA37" s="81"/>
-      <c r="AB37" s="82"/>
-      <c r="AC37" s="83"/>
-      <c r="AD37" s="84"/>
-      <c r="AE37" s="84"/>
-      <c r="AF37" s="84"/>
-      <c r="AG37" s="84"/>
-      <c r="AH37" s="84"/>
-      <c r="AI37" s="84"/>
-      <c r="AJ37" s="84"/>
-      <c r="AK37" s="84"/>
-      <c r="AL37" s="84"/>
-      <c r="AM37" s="85"/>
+      <c r="M37" s="91"/>
+      <c r="N37" s="92"/>
+      <c r="O37" s="92"/>
+      <c r="P37" s="92"/>
+      <c r="Q37" s="92"/>
+      <c r="R37" s="92"/>
+      <c r="S37" s="93"/>
+      <c r="T37" s="86"/>
+      <c r="U37" s="87"/>
+      <c r="V37" s="87"/>
+      <c r="W37" s="87"/>
+      <c r="X37" s="87"/>
+      <c r="Y37" s="87"/>
+      <c r="Z37" s="87"/>
+      <c r="AA37" s="87"/>
+      <c r="AB37" s="88"/>
+      <c r="AC37" s="141"/>
+      <c r="AD37" s="142"/>
+      <c r="AE37" s="142"/>
+      <c r="AF37" s="142"/>
+      <c r="AG37" s="142"/>
+      <c r="AH37" s="142"/>
+      <c r="AI37" s="142"/>
+      <c r="AJ37" s="142"/>
+      <c r="AK37" s="142"/>
+      <c r="AL37" s="142"/>
+      <c r="AM37" s="143"/>
       <c r="AN37" s="52"/>
       <c r="AO37" s="53"/>
       <c r="AP37" s="53"/>
@@ -8239,39 +8239,39 @@
       <c r="J38" s="66"/>
       <c r="K38" s="66"/>
       <c r="L38" s="69"/>
-      <c r="M38" s="71" t="s">
+      <c r="M38" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="N38" s="72"/>
-      <c r="O38" s="72"/>
-      <c r="P38" s="72"/>
-      <c r="Q38" s="72"/>
-      <c r="R38" s="72"/>
-      <c r="S38" s="73"/>
-      <c r="T38" s="77" t="s">
+      <c r="N38" s="89"/>
+      <c r="O38" s="89"/>
+      <c r="P38" s="89"/>
+      <c r="Q38" s="89"/>
+      <c r="R38" s="89"/>
+      <c r="S38" s="90"/>
+      <c r="T38" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="U38" s="78"/>
-      <c r="V38" s="78"/>
-      <c r="W38" s="78"/>
-      <c r="X38" s="78"/>
-      <c r="Y38" s="78"/>
-      <c r="Z38" s="78"/>
-      <c r="AA38" s="78"/>
-      <c r="AB38" s="79"/>
-      <c r="AC38" s="71" t="s">
+      <c r="U38" s="80"/>
+      <c r="V38" s="80"/>
+      <c r="W38" s="80"/>
+      <c r="X38" s="80"/>
+      <c r="Y38" s="80"/>
+      <c r="Z38" s="80"/>
+      <c r="AA38" s="80"/>
+      <c r="AB38" s="81"/>
+      <c r="AC38" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="AD38" s="72"/>
-      <c r="AE38" s="72"/>
-      <c r="AF38" s="72"/>
-      <c r="AG38" s="72"/>
-      <c r="AH38" s="72"/>
-      <c r="AI38" s="72"/>
-      <c r="AJ38" s="72"/>
-      <c r="AK38" s="72"/>
-      <c r="AL38" s="72"/>
-      <c r="AM38" s="73"/>
+      <c r="AD38" s="89"/>
+      <c r="AE38" s="89"/>
+      <c r="AF38" s="89"/>
+      <c r="AG38" s="89"/>
+      <c r="AH38" s="89"/>
+      <c r="AI38" s="89"/>
+      <c r="AJ38" s="89"/>
+      <c r="AK38" s="89"/>
+      <c r="AL38" s="89"/>
+      <c r="AM38" s="90"/>
       <c r="AN38" s="49" t="s">
         <v>56</v>
       </c>
@@ -8317,33 +8317,33 @@
       <c r="J39" s="68"/>
       <c r="K39" s="68"/>
       <c r="L39" s="70"/>
-      <c r="M39" s="74"/>
-      <c r="N39" s="75"/>
-      <c r="O39" s="75"/>
-      <c r="P39" s="75"/>
-      <c r="Q39" s="75"/>
-      <c r="R39" s="75"/>
-      <c r="S39" s="76"/>
-      <c r="T39" s="80"/>
-      <c r="U39" s="81"/>
-      <c r="V39" s="81"/>
-      <c r="W39" s="81"/>
-      <c r="X39" s="81"/>
-      <c r="Y39" s="81"/>
-      <c r="Z39" s="81"/>
-      <c r="AA39" s="81"/>
-      <c r="AB39" s="82"/>
-      <c r="AC39" s="83"/>
-      <c r="AD39" s="84"/>
-      <c r="AE39" s="84"/>
-      <c r="AF39" s="84"/>
-      <c r="AG39" s="84"/>
-      <c r="AH39" s="84"/>
-      <c r="AI39" s="84"/>
-      <c r="AJ39" s="84"/>
-      <c r="AK39" s="84"/>
-      <c r="AL39" s="84"/>
-      <c r="AM39" s="85"/>
+      <c r="M39" s="91"/>
+      <c r="N39" s="92"/>
+      <c r="O39" s="92"/>
+      <c r="P39" s="92"/>
+      <c r="Q39" s="92"/>
+      <c r="R39" s="92"/>
+      <c r="S39" s="93"/>
+      <c r="T39" s="86"/>
+      <c r="U39" s="87"/>
+      <c r="V39" s="87"/>
+      <c r="W39" s="87"/>
+      <c r="X39" s="87"/>
+      <c r="Y39" s="87"/>
+      <c r="Z39" s="87"/>
+      <c r="AA39" s="87"/>
+      <c r="AB39" s="88"/>
+      <c r="AC39" s="141"/>
+      <c r="AD39" s="142"/>
+      <c r="AE39" s="142"/>
+      <c r="AF39" s="142"/>
+      <c r="AG39" s="142"/>
+      <c r="AH39" s="142"/>
+      <c r="AI39" s="142"/>
+      <c r="AJ39" s="142"/>
+      <c r="AK39" s="142"/>
+      <c r="AL39" s="142"/>
+      <c r="AM39" s="143"/>
       <c r="AN39" s="52"/>
       <c r="AO39" s="53"/>
       <c r="AP39" s="53"/>
@@ -8385,39 +8385,39 @@
       <c r="J40" s="66"/>
       <c r="K40" s="66"/>
       <c r="L40" s="69"/>
-      <c r="M40" s="71" t="s">
+      <c r="M40" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="N40" s="72"/>
-      <c r="O40" s="72"/>
-      <c r="P40" s="72"/>
-      <c r="Q40" s="72"/>
-      <c r="R40" s="72"/>
-      <c r="S40" s="73"/>
-      <c r="T40" s="77" t="s">
+      <c r="N40" s="89"/>
+      <c r="O40" s="89"/>
+      <c r="P40" s="89"/>
+      <c r="Q40" s="89"/>
+      <c r="R40" s="89"/>
+      <c r="S40" s="90"/>
+      <c r="T40" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="U40" s="78"/>
-      <c r="V40" s="78"/>
-      <c r="W40" s="78"/>
-      <c r="X40" s="78"/>
-      <c r="Y40" s="78"/>
-      <c r="Z40" s="78"/>
-      <c r="AA40" s="78"/>
-      <c r="AB40" s="79"/>
-      <c r="AC40" s="71" t="s">
+      <c r="U40" s="80"/>
+      <c r="V40" s="80"/>
+      <c r="W40" s="80"/>
+      <c r="X40" s="80"/>
+      <c r="Y40" s="80"/>
+      <c r="Z40" s="80"/>
+      <c r="AA40" s="80"/>
+      <c r="AB40" s="81"/>
+      <c r="AC40" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="AD40" s="72"/>
-      <c r="AE40" s="72"/>
-      <c r="AF40" s="72"/>
-      <c r="AG40" s="72"/>
-      <c r="AH40" s="72"/>
-      <c r="AI40" s="72"/>
-      <c r="AJ40" s="72"/>
-      <c r="AK40" s="72"/>
-      <c r="AL40" s="72"/>
-      <c r="AM40" s="73"/>
+      <c r="AD40" s="89"/>
+      <c r="AE40" s="89"/>
+      <c r="AF40" s="89"/>
+      <c r="AG40" s="89"/>
+      <c r="AH40" s="89"/>
+      <c r="AI40" s="89"/>
+      <c r="AJ40" s="89"/>
+      <c r="AK40" s="89"/>
+      <c r="AL40" s="89"/>
+      <c r="AM40" s="90"/>
       <c r="AN40" s="49" t="s">
         <v>56</v>
       </c>
@@ -8464,33 +8464,33 @@
       <c r="J41" s="68"/>
       <c r="K41" s="68"/>
       <c r="L41" s="70"/>
-      <c r="M41" s="74"/>
-      <c r="N41" s="75"/>
-      <c r="O41" s="75"/>
-      <c r="P41" s="75"/>
-      <c r="Q41" s="75"/>
-      <c r="R41" s="75"/>
-      <c r="S41" s="76"/>
-      <c r="T41" s="80"/>
-      <c r="U41" s="81"/>
-      <c r="V41" s="81"/>
-      <c r="W41" s="81"/>
-      <c r="X41" s="81"/>
-      <c r="Y41" s="81"/>
-      <c r="Z41" s="81"/>
-      <c r="AA41" s="81"/>
-      <c r="AB41" s="82"/>
-      <c r="AC41" s="83"/>
-      <c r="AD41" s="84"/>
-      <c r="AE41" s="84"/>
-      <c r="AF41" s="84"/>
-      <c r="AG41" s="84"/>
-      <c r="AH41" s="84"/>
-      <c r="AI41" s="84"/>
-      <c r="AJ41" s="84"/>
-      <c r="AK41" s="84"/>
-      <c r="AL41" s="84"/>
-      <c r="AM41" s="85"/>
+      <c r="M41" s="91"/>
+      <c r="N41" s="92"/>
+      <c r="O41" s="92"/>
+      <c r="P41" s="92"/>
+      <c r="Q41" s="92"/>
+      <c r="R41" s="92"/>
+      <c r="S41" s="93"/>
+      <c r="T41" s="86"/>
+      <c r="U41" s="87"/>
+      <c r="V41" s="87"/>
+      <c r="W41" s="87"/>
+      <c r="X41" s="87"/>
+      <c r="Y41" s="87"/>
+      <c r="Z41" s="87"/>
+      <c r="AA41" s="87"/>
+      <c r="AB41" s="88"/>
+      <c r="AC41" s="141"/>
+      <c r="AD41" s="142"/>
+      <c r="AE41" s="142"/>
+      <c r="AF41" s="142"/>
+      <c r="AG41" s="142"/>
+      <c r="AH41" s="142"/>
+      <c r="AI41" s="142"/>
+      <c r="AJ41" s="142"/>
+      <c r="AK41" s="142"/>
+      <c r="AL41" s="142"/>
+      <c r="AM41" s="143"/>
       <c r="AN41" s="52"/>
       <c r="AO41" s="53"/>
       <c r="AP41" s="53"/>
@@ -8533,39 +8533,39 @@
       <c r="J42" s="66"/>
       <c r="K42" s="66"/>
       <c r="L42" s="69"/>
-      <c r="M42" s="139" t="s">
+      <c r="M42" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="N42" s="140"/>
-      <c r="O42" s="140"/>
-      <c r="P42" s="140"/>
-      <c r="Q42" s="140"/>
-      <c r="R42" s="140"/>
-      <c r="S42" s="141"/>
-      <c r="T42" s="144" t="s">
+      <c r="N42" s="72"/>
+      <c r="O42" s="72"/>
+      <c r="P42" s="72"/>
+      <c r="Q42" s="72"/>
+      <c r="R42" s="72"/>
+      <c r="S42" s="73"/>
+      <c r="T42" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="U42" s="140"/>
-      <c r="V42" s="140"/>
-      <c r="W42" s="140"/>
-      <c r="X42" s="140"/>
-      <c r="Y42" s="140"/>
-      <c r="Z42" s="140"/>
-      <c r="AA42" s="140"/>
-      <c r="AB42" s="140"/>
-      <c r="AC42" s="146" t="s">
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
+      <c r="W42" s="72"/>
+      <c r="X42" s="72"/>
+      <c r="Y42" s="72"/>
+      <c r="Z42" s="72"/>
+      <c r="AA42" s="72"/>
+      <c r="AB42" s="72"/>
+      <c r="AC42" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="AD42" s="140"/>
-      <c r="AE42" s="140"/>
-      <c r="AF42" s="140"/>
-      <c r="AG42" s="140"/>
-      <c r="AH42" s="140"/>
-      <c r="AI42" s="140"/>
-      <c r="AJ42" s="140"/>
-      <c r="AK42" s="140"/>
-      <c r="AL42" s="140"/>
-      <c r="AM42" s="141"/>
+      <c r="AD42" s="72"/>
+      <c r="AE42" s="72"/>
+      <c r="AF42" s="72"/>
+      <c r="AG42" s="72"/>
+      <c r="AH42" s="72"/>
+      <c r="AI42" s="72"/>
+      <c r="AJ42" s="72"/>
+      <c r="AK42" s="72"/>
+      <c r="AL42" s="72"/>
+      <c r="AM42" s="73"/>
       <c r="AN42" s="49" t="s">
         <v>56</v>
       </c>
@@ -8611,33 +8611,33 @@
       <c r="J43" s="68"/>
       <c r="K43" s="68"/>
       <c r="L43" s="70"/>
-      <c r="M43" s="142"/>
-      <c r="N43" s="142"/>
-      <c r="O43" s="142"/>
-      <c r="P43" s="142"/>
-      <c r="Q43" s="142"/>
-      <c r="R43" s="142"/>
-      <c r="S43" s="143"/>
-      <c r="T43" s="145"/>
-      <c r="U43" s="142"/>
-      <c r="V43" s="142"/>
-      <c r="W43" s="142"/>
-      <c r="X43" s="142"/>
-      <c r="Y43" s="142"/>
-      <c r="Z43" s="142"/>
-      <c r="AA43" s="142"/>
-      <c r="AB43" s="142"/>
-      <c r="AC43" s="145"/>
-      <c r="AD43" s="142"/>
-      <c r="AE43" s="142"/>
-      <c r="AF43" s="142"/>
-      <c r="AG43" s="142"/>
-      <c r="AH43" s="142"/>
-      <c r="AI43" s="142"/>
-      <c r="AJ43" s="142"/>
-      <c r="AK43" s="142"/>
-      <c r="AL43" s="142"/>
-      <c r="AM43" s="143"/>
+      <c r="M43" s="74"/>
+      <c r="N43" s="74"/>
+      <c r="O43" s="74"/>
+      <c r="P43" s="74"/>
+      <c r="Q43" s="74"/>
+      <c r="R43" s="74"/>
+      <c r="S43" s="75"/>
+      <c r="T43" s="77"/>
+      <c r="U43" s="74"/>
+      <c r="V43" s="74"/>
+      <c r="W43" s="74"/>
+      <c r="X43" s="74"/>
+      <c r="Y43" s="74"/>
+      <c r="Z43" s="74"/>
+      <c r="AA43" s="74"/>
+      <c r="AB43" s="74"/>
+      <c r="AC43" s="77"/>
+      <c r="AD43" s="74"/>
+      <c r="AE43" s="74"/>
+      <c r="AF43" s="74"/>
+      <c r="AG43" s="74"/>
+      <c r="AH43" s="74"/>
+      <c r="AI43" s="74"/>
+      <c r="AJ43" s="74"/>
+      <c r="AK43" s="74"/>
+      <c r="AL43" s="74"/>
+      <c r="AM43" s="75"/>
       <c r="AN43" s="52"/>
       <c r="AO43" s="53"/>
       <c r="AP43" s="53"/>
@@ -8679,39 +8679,39 @@
       <c r="J44" s="66"/>
       <c r="K44" s="66"/>
       <c r="L44" s="69"/>
-      <c r="M44" s="139" t="s">
+      <c r="M44" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="N44" s="140"/>
-      <c r="O44" s="140"/>
-      <c r="P44" s="140"/>
-      <c r="Q44" s="140"/>
-      <c r="R44" s="140"/>
-      <c r="S44" s="141"/>
-      <c r="T44" s="144" t="s">
+      <c r="N44" s="72"/>
+      <c r="O44" s="72"/>
+      <c r="P44" s="72"/>
+      <c r="Q44" s="72"/>
+      <c r="R44" s="72"/>
+      <c r="S44" s="73"/>
+      <c r="T44" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="U44" s="140"/>
-      <c r="V44" s="140"/>
-      <c r="W44" s="140"/>
-      <c r="X44" s="140"/>
-      <c r="Y44" s="140"/>
-      <c r="Z44" s="140"/>
-      <c r="AA44" s="140"/>
-      <c r="AB44" s="140"/>
-      <c r="AC44" s="146" t="s">
+      <c r="U44" s="72"/>
+      <c r="V44" s="72"/>
+      <c r="W44" s="72"/>
+      <c r="X44" s="72"/>
+      <c r="Y44" s="72"/>
+      <c r="Z44" s="72"/>
+      <c r="AA44" s="72"/>
+      <c r="AB44" s="72"/>
+      <c r="AC44" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="AD44" s="140"/>
-      <c r="AE44" s="140"/>
-      <c r="AF44" s="140"/>
-      <c r="AG44" s="140"/>
-      <c r="AH44" s="140"/>
-      <c r="AI44" s="140"/>
-      <c r="AJ44" s="140"/>
-      <c r="AK44" s="140"/>
-      <c r="AL44" s="140"/>
-      <c r="AM44" s="141"/>
+      <c r="AD44" s="72"/>
+      <c r="AE44" s="72"/>
+      <c r="AF44" s="72"/>
+      <c r="AG44" s="72"/>
+      <c r="AH44" s="72"/>
+      <c r="AI44" s="72"/>
+      <c r="AJ44" s="72"/>
+      <c r="AK44" s="72"/>
+      <c r="AL44" s="72"/>
+      <c r="AM44" s="73"/>
       <c r="AN44" s="49" t="s">
         <v>56</v>
       </c>
@@ -8757,33 +8757,33 @@
       <c r="J45" s="68"/>
       <c r="K45" s="68"/>
       <c r="L45" s="70"/>
-      <c r="M45" s="142"/>
-      <c r="N45" s="142"/>
-      <c r="O45" s="142"/>
-      <c r="P45" s="142"/>
-      <c r="Q45" s="142"/>
-      <c r="R45" s="142"/>
-      <c r="S45" s="143"/>
-      <c r="T45" s="145"/>
-      <c r="U45" s="142"/>
-      <c r="V45" s="142"/>
-      <c r="W45" s="142"/>
-      <c r="X45" s="142"/>
-      <c r="Y45" s="142"/>
-      <c r="Z45" s="142"/>
-      <c r="AA45" s="142"/>
-      <c r="AB45" s="142"/>
-      <c r="AC45" s="145"/>
-      <c r="AD45" s="142"/>
-      <c r="AE45" s="142"/>
-      <c r="AF45" s="142"/>
-      <c r="AG45" s="142"/>
-      <c r="AH45" s="142"/>
-      <c r="AI45" s="142"/>
-      <c r="AJ45" s="142"/>
-      <c r="AK45" s="142"/>
-      <c r="AL45" s="142"/>
-      <c r="AM45" s="143"/>
+      <c r="M45" s="74"/>
+      <c r="N45" s="74"/>
+      <c r="O45" s="74"/>
+      <c r="P45" s="74"/>
+      <c r="Q45" s="74"/>
+      <c r="R45" s="74"/>
+      <c r="S45" s="75"/>
+      <c r="T45" s="77"/>
+      <c r="U45" s="74"/>
+      <c r="V45" s="74"/>
+      <c r="W45" s="74"/>
+      <c r="X45" s="74"/>
+      <c r="Y45" s="74"/>
+      <c r="Z45" s="74"/>
+      <c r="AA45" s="74"/>
+      <c r="AB45" s="74"/>
+      <c r="AC45" s="77"/>
+      <c r="AD45" s="74"/>
+      <c r="AE45" s="74"/>
+      <c r="AF45" s="74"/>
+      <c r="AG45" s="74"/>
+      <c r="AH45" s="74"/>
+      <c r="AI45" s="74"/>
+      <c r="AJ45" s="74"/>
+      <c r="AK45" s="74"/>
+      <c r="AL45" s="74"/>
+      <c r="AM45" s="75"/>
       <c r="AN45" s="52"/>
       <c r="AO45" s="53"/>
       <c r="AP45" s="53"/>
@@ -8825,39 +8825,39 @@
       <c r="J46" s="66"/>
       <c r="K46" s="66"/>
       <c r="L46" s="69"/>
-      <c r="M46" s="139" t="s">
+      <c r="M46" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="N46" s="140"/>
-      <c r="O46" s="140"/>
-      <c r="P46" s="140"/>
-      <c r="Q46" s="140"/>
-      <c r="R46" s="140"/>
-      <c r="S46" s="141"/>
-      <c r="T46" s="144" t="s">
+      <c r="N46" s="72"/>
+      <c r="O46" s="72"/>
+      <c r="P46" s="72"/>
+      <c r="Q46" s="72"/>
+      <c r="R46" s="72"/>
+      <c r="S46" s="73"/>
+      <c r="T46" s="76" t="s">
         <v>141</v>
       </c>
-      <c r="U46" s="140"/>
-      <c r="V46" s="140"/>
-      <c r="W46" s="140"/>
-      <c r="X46" s="140"/>
-      <c r="Y46" s="140"/>
-      <c r="Z46" s="140"/>
-      <c r="AA46" s="140"/>
-      <c r="AB46" s="140"/>
-      <c r="AC46" s="146" t="s">
+      <c r="U46" s="72"/>
+      <c r="V46" s="72"/>
+      <c r="W46" s="72"/>
+      <c r="X46" s="72"/>
+      <c r="Y46" s="72"/>
+      <c r="Z46" s="72"/>
+      <c r="AA46" s="72"/>
+      <c r="AB46" s="72"/>
+      <c r="AC46" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="AD46" s="140"/>
-      <c r="AE46" s="140"/>
-      <c r="AF46" s="140"/>
-      <c r="AG46" s="140"/>
-      <c r="AH46" s="140"/>
-      <c r="AI46" s="140"/>
-      <c r="AJ46" s="140"/>
-      <c r="AK46" s="140"/>
-      <c r="AL46" s="140"/>
-      <c r="AM46" s="141"/>
+      <c r="AD46" s="72"/>
+      <c r="AE46" s="72"/>
+      <c r="AF46" s="72"/>
+      <c r="AG46" s="72"/>
+      <c r="AH46" s="72"/>
+      <c r="AI46" s="72"/>
+      <c r="AJ46" s="72"/>
+      <c r="AK46" s="72"/>
+      <c r="AL46" s="72"/>
+      <c r="AM46" s="73"/>
       <c r="AN46" s="49" t="s">
         <v>56</v>
       </c>
@@ -8903,33 +8903,33 @@
       <c r="J47" s="68"/>
       <c r="K47" s="68"/>
       <c r="L47" s="70"/>
-      <c r="M47" s="142"/>
-      <c r="N47" s="142"/>
-      <c r="O47" s="142"/>
-      <c r="P47" s="142"/>
-      <c r="Q47" s="142"/>
-      <c r="R47" s="142"/>
-      <c r="S47" s="143"/>
-      <c r="T47" s="145"/>
-      <c r="U47" s="142"/>
-      <c r="V47" s="142"/>
-      <c r="W47" s="142"/>
-      <c r="X47" s="142"/>
-      <c r="Y47" s="142"/>
-      <c r="Z47" s="142"/>
-      <c r="AA47" s="142"/>
-      <c r="AB47" s="142"/>
-      <c r="AC47" s="145"/>
-      <c r="AD47" s="142"/>
-      <c r="AE47" s="142"/>
-      <c r="AF47" s="142"/>
-      <c r="AG47" s="142"/>
-      <c r="AH47" s="142"/>
-      <c r="AI47" s="142"/>
-      <c r="AJ47" s="142"/>
-      <c r="AK47" s="142"/>
-      <c r="AL47" s="142"/>
-      <c r="AM47" s="143"/>
+      <c r="M47" s="74"/>
+      <c r="N47" s="74"/>
+      <c r="O47" s="74"/>
+      <c r="P47" s="74"/>
+      <c r="Q47" s="74"/>
+      <c r="R47" s="74"/>
+      <c r="S47" s="75"/>
+      <c r="T47" s="77"/>
+      <c r="U47" s="74"/>
+      <c r="V47" s="74"/>
+      <c r="W47" s="74"/>
+      <c r="X47" s="74"/>
+      <c r="Y47" s="74"/>
+      <c r="Z47" s="74"/>
+      <c r="AA47" s="74"/>
+      <c r="AB47" s="74"/>
+      <c r="AC47" s="77"/>
+      <c r="AD47" s="74"/>
+      <c r="AE47" s="74"/>
+      <c r="AF47" s="74"/>
+      <c r="AG47" s="74"/>
+      <c r="AH47" s="74"/>
+      <c r="AI47" s="74"/>
+      <c r="AJ47" s="74"/>
+      <c r="AK47" s="74"/>
+      <c r="AL47" s="74"/>
+      <c r="AM47" s="75"/>
       <c r="AN47" s="52"/>
       <c r="AO47" s="53"/>
       <c r="AP47" s="53"/>
@@ -8954,79 +8954,166 @@
     </row>
   </sheetData>
   <mergeCells count="257">
-    <mergeCell ref="AX46:AZ47"/>
-    <mergeCell ref="BA46:BH47"/>
-    <mergeCell ref="A46:B47"/>
-    <mergeCell ref="C46:G47"/>
-    <mergeCell ref="H46:L47"/>
-    <mergeCell ref="M46:S47"/>
-    <mergeCell ref="T46:AB47"/>
-    <mergeCell ref="AC46:AM47"/>
-    <mergeCell ref="AN46:AQ47"/>
-    <mergeCell ref="AR46:AT47"/>
-    <mergeCell ref="AU46:AW47"/>
-    <mergeCell ref="AX42:AZ43"/>
-    <mergeCell ref="BA42:BH43"/>
-    <mergeCell ref="M44:S45"/>
-    <mergeCell ref="T44:AB45"/>
-    <mergeCell ref="AC44:AM45"/>
-    <mergeCell ref="A44:B45"/>
-    <mergeCell ref="C44:G45"/>
-    <mergeCell ref="H44:L45"/>
-    <mergeCell ref="AN44:AQ45"/>
-    <mergeCell ref="AR44:AT45"/>
-    <mergeCell ref="AU44:AW45"/>
-    <mergeCell ref="AX44:AZ45"/>
-    <mergeCell ref="BA44:BH45"/>
-    <mergeCell ref="M42:S43"/>
-    <mergeCell ref="T42:AB43"/>
-    <mergeCell ref="AC42:AM43"/>
-    <mergeCell ref="A42:B43"/>
-    <mergeCell ref="C42:G43"/>
-    <mergeCell ref="H42:L43"/>
-    <mergeCell ref="AN42:AQ43"/>
-    <mergeCell ref="AR42:AT43"/>
-    <mergeCell ref="AU42:AW43"/>
-    <mergeCell ref="AN14:AQ15"/>
-    <mergeCell ref="AR14:AT15"/>
-    <mergeCell ref="AU14:AW15"/>
-    <mergeCell ref="AX14:AZ15"/>
-    <mergeCell ref="AC12:AM13"/>
-    <mergeCell ref="AR12:AT13"/>
-    <mergeCell ref="AU12:AW13"/>
-    <mergeCell ref="AX12:AZ13"/>
-    <mergeCell ref="AN12:AQ13"/>
-    <mergeCell ref="T12:AB13"/>
-    <mergeCell ref="T10:AB11"/>
-    <mergeCell ref="AC8:AM9"/>
-    <mergeCell ref="AC10:AM11"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:G15"/>
-    <mergeCell ref="H14:L15"/>
-    <mergeCell ref="M14:S15"/>
-    <mergeCell ref="T14:AB15"/>
-    <mergeCell ref="AC14:AM15"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="C10:G11"/>
-    <mergeCell ref="H10:L11"/>
-    <mergeCell ref="M10:S11"/>
-    <mergeCell ref="AN4:AV4"/>
-    <mergeCell ref="AW4:AZ4"/>
-    <mergeCell ref="BA4:BH4"/>
-    <mergeCell ref="C6:S6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="M7:S7"/>
-    <mergeCell ref="AR6:AT7"/>
-    <mergeCell ref="AU6:AW7"/>
-    <mergeCell ref="AX6:AZ7"/>
-    <mergeCell ref="AN6:AQ7"/>
-    <mergeCell ref="BA6:BH7"/>
-    <mergeCell ref="A3:G4"/>
-    <mergeCell ref="H3:AI4"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="T6:AB7"/>
-    <mergeCell ref="AC6:AM7"/>
+    <mergeCell ref="AX40:AZ41"/>
+    <mergeCell ref="BA40:BH41"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="C40:G41"/>
+    <mergeCell ref="H40:L41"/>
+    <mergeCell ref="M40:S41"/>
+    <mergeCell ref="T40:AB41"/>
+    <mergeCell ref="AC40:AM41"/>
+    <mergeCell ref="AN40:AQ41"/>
+    <mergeCell ref="AR40:AT41"/>
+    <mergeCell ref="AU40:AW41"/>
+    <mergeCell ref="AC36:AM37"/>
+    <mergeCell ref="AN36:AQ37"/>
+    <mergeCell ref="AR36:AT37"/>
+    <mergeCell ref="AU36:AW37"/>
+    <mergeCell ref="AX36:AZ37"/>
+    <mergeCell ref="AU38:AW39"/>
+    <mergeCell ref="BA26:BH27"/>
+    <mergeCell ref="AU30:AW31"/>
+    <mergeCell ref="AX30:AZ31"/>
+    <mergeCell ref="BA30:BH31"/>
+    <mergeCell ref="AX38:AZ39"/>
+    <mergeCell ref="BA38:BH39"/>
+    <mergeCell ref="BA36:BH37"/>
+    <mergeCell ref="A36:B37"/>
+    <mergeCell ref="C36:G37"/>
+    <mergeCell ref="H36:L37"/>
+    <mergeCell ref="M36:S37"/>
+    <mergeCell ref="T36:AB37"/>
+    <mergeCell ref="BA32:BH33"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="C34:G35"/>
+    <mergeCell ref="H34:L35"/>
+    <mergeCell ref="M34:S35"/>
+    <mergeCell ref="T34:AB35"/>
+    <mergeCell ref="AC34:AM35"/>
+    <mergeCell ref="AN34:AQ35"/>
+    <mergeCell ref="AR34:AT35"/>
+    <mergeCell ref="AU34:AW35"/>
+    <mergeCell ref="AX34:AZ35"/>
+    <mergeCell ref="BA34:BH35"/>
+    <mergeCell ref="AC32:AM33"/>
+    <mergeCell ref="AN32:AQ33"/>
+    <mergeCell ref="AR32:AT33"/>
+    <mergeCell ref="AU32:AW33"/>
+    <mergeCell ref="AX32:AZ33"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="C32:G33"/>
+    <mergeCell ref="BA20:BH21"/>
+    <mergeCell ref="BA22:BH23"/>
+    <mergeCell ref="BA28:BH29"/>
+    <mergeCell ref="AC28:AM29"/>
+    <mergeCell ref="AN28:AQ29"/>
+    <mergeCell ref="AR28:AT29"/>
+    <mergeCell ref="AU28:AW29"/>
+    <mergeCell ref="AX28:AZ29"/>
+    <mergeCell ref="AC26:AM27"/>
+    <mergeCell ref="AN26:AQ27"/>
+    <mergeCell ref="AR26:AT27"/>
+    <mergeCell ref="AU26:AW27"/>
+    <mergeCell ref="AX26:AZ27"/>
+    <mergeCell ref="AC24:AM25"/>
+    <mergeCell ref="AN24:AQ25"/>
+    <mergeCell ref="AR24:AT25"/>
+    <mergeCell ref="AU24:AW25"/>
+    <mergeCell ref="AX24:AZ25"/>
+    <mergeCell ref="AC22:AM23"/>
+    <mergeCell ref="BA24:BH24"/>
+    <mergeCell ref="BA25:BH25"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:G27"/>
+    <mergeCell ref="H26:L27"/>
+    <mergeCell ref="M26:S27"/>
+    <mergeCell ref="T26:AB27"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:G25"/>
+    <mergeCell ref="H24:L25"/>
+    <mergeCell ref="M24:S25"/>
+    <mergeCell ref="T24:AB25"/>
+    <mergeCell ref="A38:B39"/>
+    <mergeCell ref="C38:G39"/>
+    <mergeCell ref="H38:L39"/>
+    <mergeCell ref="M38:S39"/>
+    <mergeCell ref="T38:AB39"/>
+    <mergeCell ref="AC38:AM39"/>
+    <mergeCell ref="AN38:AQ39"/>
+    <mergeCell ref="AR38:AT39"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:G29"/>
+    <mergeCell ref="H28:L29"/>
+    <mergeCell ref="M28:S29"/>
+    <mergeCell ref="T28:AB29"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="C30:G31"/>
+    <mergeCell ref="H30:L31"/>
+    <mergeCell ref="M30:S31"/>
+    <mergeCell ref="T30:AB31"/>
+    <mergeCell ref="AC30:AM31"/>
+    <mergeCell ref="AN30:AQ31"/>
+    <mergeCell ref="AR30:AT31"/>
+    <mergeCell ref="H32:L33"/>
+    <mergeCell ref="M32:S33"/>
+    <mergeCell ref="T32:AB33"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="H22:L23"/>
+    <mergeCell ref="M22:S23"/>
+    <mergeCell ref="T22:AB23"/>
+    <mergeCell ref="AU22:AW23"/>
+    <mergeCell ref="AX22:AZ23"/>
+    <mergeCell ref="AC20:AM21"/>
+    <mergeCell ref="AN20:AQ21"/>
+    <mergeCell ref="AR20:AT21"/>
+    <mergeCell ref="AU20:AW21"/>
+    <mergeCell ref="AX20:AZ21"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:G21"/>
+    <mergeCell ref="H20:L21"/>
+    <mergeCell ref="M20:S21"/>
+    <mergeCell ref="T20:AB21"/>
+    <mergeCell ref="AN22:AQ23"/>
+    <mergeCell ref="AR22:AT23"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:G19"/>
+    <mergeCell ref="H18:L19"/>
+    <mergeCell ref="M18:S19"/>
+    <mergeCell ref="T18:AB19"/>
+    <mergeCell ref="AJ3:AM3"/>
+    <mergeCell ref="AN3:AV3"/>
+    <mergeCell ref="AW3:AZ3"/>
+    <mergeCell ref="BA3:BH3"/>
+    <mergeCell ref="AJ4:AM4"/>
+    <mergeCell ref="AC18:AM19"/>
+    <mergeCell ref="AN18:AQ19"/>
+    <mergeCell ref="AR18:AT19"/>
+    <mergeCell ref="AU18:AW19"/>
+    <mergeCell ref="AX18:AZ19"/>
+    <mergeCell ref="AC16:AM17"/>
+    <mergeCell ref="AN16:AQ17"/>
+    <mergeCell ref="AR16:AT17"/>
+    <mergeCell ref="AU16:AW17"/>
+    <mergeCell ref="AX16:AZ17"/>
+    <mergeCell ref="BA14:BH15"/>
+    <mergeCell ref="BA16:BH17"/>
+    <mergeCell ref="BA18:BH19"/>
+    <mergeCell ref="AR8:AT9"/>
+    <mergeCell ref="AW1:AZ1"/>
+    <mergeCell ref="BA1:BH1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H2:AI2"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AN2:AR2"/>
+    <mergeCell ref="AS2:AV2"/>
+    <mergeCell ref="AW2:AZ2"/>
+    <mergeCell ref="BA2:BH2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:AI1"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AN1:AR1"/>
+    <mergeCell ref="AS1:AV1"/>
     <mergeCell ref="AU8:AW9"/>
     <mergeCell ref="AX8:AZ9"/>
     <mergeCell ref="AN8:AQ9"/>
@@ -9051,166 +9138,79 @@
     <mergeCell ref="AU10:AW11"/>
     <mergeCell ref="AX10:AZ11"/>
     <mergeCell ref="AN10:AQ11"/>
-    <mergeCell ref="AW1:AZ1"/>
-    <mergeCell ref="BA1:BH1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="H2:AI2"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AN2:AR2"/>
-    <mergeCell ref="AS2:AV2"/>
-    <mergeCell ref="AW2:AZ2"/>
-    <mergeCell ref="BA2:BH2"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:AI1"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AN1:AR1"/>
-    <mergeCell ref="AS1:AV1"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="C18:G19"/>
-    <mergeCell ref="H18:L19"/>
-    <mergeCell ref="M18:S19"/>
-    <mergeCell ref="T18:AB19"/>
-    <mergeCell ref="AJ3:AM3"/>
-    <mergeCell ref="AN3:AV3"/>
-    <mergeCell ref="AW3:AZ3"/>
-    <mergeCell ref="BA3:BH3"/>
-    <mergeCell ref="AJ4:AM4"/>
-    <mergeCell ref="AC18:AM19"/>
-    <mergeCell ref="AN18:AQ19"/>
-    <mergeCell ref="AR18:AT19"/>
-    <mergeCell ref="AU18:AW19"/>
-    <mergeCell ref="AX18:AZ19"/>
-    <mergeCell ref="AC16:AM17"/>
-    <mergeCell ref="AN16:AQ17"/>
-    <mergeCell ref="AR16:AT17"/>
-    <mergeCell ref="AU16:AW17"/>
-    <mergeCell ref="AX16:AZ17"/>
-    <mergeCell ref="BA14:BH15"/>
-    <mergeCell ref="BA16:BH17"/>
-    <mergeCell ref="BA18:BH19"/>
-    <mergeCell ref="AR8:AT9"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="H22:L23"/>
-    <mergeCell ref="M22:S23"/>
-    <mergeCell ref="T22:AB23"/>
-    <mergeCell ref="AU22:AW23"/>
-    <mergeCell ref="AX22:AZ23"/>
-    <mergeCell ref="AC20:AM21"/>
-    <mergeCell ref="AN20:AQ21"/>
-    <mergeCell ref="AR20:AT21"/>
-    <mergeCell ref="AU20:AW21"/>
-    <mergeCell ref="AX20:AZ21"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="C20:G21"/>
-    <mergeCell ref="H20:L21"/>
-    <mergeCell ref="M20:S21"/>
-    <mergeCell ref="T20:AB21"/>
-    <mergeCell ref="AN22:AQ23"/>
-    <mergeCell ref="AR22:AT23"/>
-    <mergeCell ref="A38:B39"/>
-    <mergeCell ref="C38:G39"/>
-    <mergeCell ref="H38:L39"/>
-    <mergeCell ref="M38:S39"/>
-    <mergeCell ref="T38:AB39"/>
-    <mergeCell ref="AC38:AM39"/>
-    <mergeCell ref="AN38:AQ39"/>
-    <mergeCell ref="AR38:AT39"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="C28:G29"/>
-    <mergeCell ref="H28:L29"/>
-    <mergeCell ref="M28:S29"/>
-    <mergeCell ref="T28:AB29"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="C30:G31"/>
-    <mergeCell ref="H30:L31"/>
-    <mergeCell ref="M30:S31"/>
-    <mergeCell ref="T30:AB31"/>
-    <mergeCell ref="AC30:AM31"/>
-    <mergeCell ref="AN30:AQ31"/>
-    <mergeCell ref="AR30:AT31"/>
-    <mergeCell ref="H32:L33"/>
-    <mergeCell ref="M32:S33"/>
-    <mergeCell ref="T32:AB33"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="C26:G27"/>
-    <mergeCell ref="H26:L27"/>
-    <mergeCell ref="M26:S27"/>
-    <mergeCell ref="T26:AB27"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:G25"/>
-    <mergeCell ref="H24:L25"/>
-    <mergeCell ref="M24:S25"/>
-    <mergeCell ref="T24:AB25"/>
-    <mergeCell ref="BA20:BH21"/>
-    <mergeCell ref="BA22:BH23"/>
-    <mergeCell ref="BA28:BH29"/>
-    <mergeCell ref="AC28:AM29"/>
-    <mergeCell ref="AN28:AQ29"/>
-    <mergeCell ref="AR28:AT29"/>
-    <mergeCell ref="AU28:AW29"/>
-    <mergeCell ref="AX28:AZ29"/>
-    <mergeCell ref="AC26:AM27"/>
-    <mergeCell ref="AN26:AQ27"/>
-    <mergeCell ref="AR26:AT27"/>
-    <mergeCell ref="AU26:AW27"/>
-    <mergeCell ref="AX26:AZ27"/>
-    <mergeCell ref="AC24:AM25"/>
-    <mergeCell ref="AN24:AQ25"/>
-    <mergeCell ref="AR24:AT25"/>
-    <mergeCell ref="AU24:AW25"/>
-    <mergeCell ref="AX24:AZ25"/>
-    <mergeCell ref="AC22:AM23"/>
-    <mergeCell ref="BA24:BH24"/>
-    <mergeCell ref="BA25:BH25"/>
-    <mergeCell ref="A36:B37"/>
-    <mergeCell ref="C36:G37"/>
-    <mergeCell ref="H36:L37"/>
-    <mergeCell ref="M36:S37"/>
-    <mergeCell ref="T36:AB37"/>
-    <mergeCell ref="BA32:BH33"/>
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="C34:G35"/>
-    <mergeCell ref="H34:L35"/>
-    <mergeCell ref="M34:S35"/>
-    <mergeCell ref="T34:AB35"/>
-    <mergeCell ref="AC34:AM35"/>
-    <mergeCell ref="AN34:AQ35"/>
-    <mergeCell ref="AR34:AT35"/>
-    <mergeCell ref="AU34:AW35"/>
-    <mergeCell ref="AX34:AZ35"/>
-    <mergeCell ref="BA34:BH35"/>
-    <mergeCell ref="AC32:AM33"/>
-    <mergeCell ref="AN32:AQ33"/>
-    <mergeCell ref="AR32:AT33"/>
-    <mergeCell ref="AU32:AW33"/>
-    <mergeCell ref="AX32:AZ33"/>
-    <mergeCell ref="A32:B33"/>
-    <mergeCell ref="C32:G33"/>
-    <mergeCell ref="AC36:AM37"/>
-    <mergeCell ref="AN36:AQ37"/>
-    <mergeCell ref="AR36:AT37"/>
-    <mergeCell ref="AU36:AW37"/>
-    <mergeCell ref="AX36:AZ37"/>
-    <mergeCell ref="AU38:AW39"/>
-    <mergeCell ref="BA26:BH27"/>
-    <mergeCell ref="AU30:AW31"/>
-    <mergeCell ref="AX30:AZ31"/>
-    <mergeCell ref="BA30:BH31"/>
-    <mergeCell ref="AX38:AZ39"/>
-    <mergeCell ref="BA38:BH39"/>
-    <mergeCell ref="BA36:BH37"/>
-    <mergeCell ref="AX40:AZ41"/>
-    <mergeCell ref="BA40:BH41"/>
-    <mergeCell ref="A40:B41"/>
-    <mergeCell ref="C40:G41"/>
-    <mergeCell ref="H40:L41"/>
-    <mergeCell ref="M40:S41"/>
-    <mergeCell ref="T40:AB41"/>
-    <mergeCell ref="AC40:AM41"/>
-    <mergeCell ref="AN40:AQ41"/>
-    <mergeCell ref="AR40:AT41"/>
-    <mergeCell ref="AU40:AW41"/>
+    <mergeCell ref="AN4:AV4"/>
+    <mergeCell ref="AW4:AZ4"/>
+    <mergeCell ref="BA4:BH4"/>
+    <mergeCell ref="C6:S6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="AR6:AT7"/>
+    <mergeCell ref="AU6:AW7"/>
+    <mergeCell ref="AX6:AZ7"/>
+    <mergeCell ref="AN6:AQ7"/>
+    <mergeCell ref="BA6:BH7"/>
+    <mergeCell ref="A3:G4"/>
+    <mergeCell ref="H3:AI4"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="T6:AB7"/>
+    <mergeCell ref="AC6:AM7"/>
+    <mergeCell ref="T12:AB13"/>
+    <mergeCell ref="T10:AB11"/>
+    <mergeCell ref="AC8:AM9"/>
+    <mergeCell ref="AC10:AM11"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:G15"/>
+    <mergeCell ref="H14:L15"/>
+    <mergeCell ref="M14:S15"/>
+    <mergeCell ref="T14:AB15"/>
+    <mergeCell ref="AC14:AM15"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:G11"/>
+    <mergeCell ref="H10:L11"/>
+    <mergeCell ref="M10:S11"/>
+    <mergeCell ref="AN14:AQ15"/>
+    <mergeCell ref="AR14:AT15"/>
+    <mergeCell ref="AU14:AW15"/>
+    <mergeCell ref="AX14:AZ15"/>
+    <mergeCell ref="AC12:AM13"/>
+    <mergeCell ref="AR12:AT13"/>
+    <mergeCell ref="AU12:AW13"/>
+    <mergeCell ref="AX12:AZ13"/>
+    <mergeCell ref="AN12:AQ13"/>
+    <mergeCell ref="AX42:AZ43"/>
+    <mergeCell ref="BA42:BH43"/>
+    <mergeCell ref="M44:S45"/>
+    <mergeCell ref="T44:AB45"/>
+    <mergeCell ref="AC44:AM45"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="C44:G45"/>
+    <mergeCell ref="H44:L45"/>
+    <mergeCell ref="AN44:AQ45"/>
+    <mergeCell ref="AR44:AT45"/>
+    <mergeCell ref="AU44:AW45"/>
+    <mergeCell ref="AX44:AZ45"/>
+    <mergeCell ref="BA44:BH45"/>
+    <mergeCell ref="M42:S43"/>
+    <mergeCell ref="T42:AB43"/>
+    <mergeCell ref="AC42:AM43"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="C42:G43"/>
+    <mergeCell ref="H42:L43"/>
+    <mergeCell ref="AN42:AQ43"/>
+    <mergeCell ref="AR42:AT43"/>
+    <mergeCell ref="AU42:AW43"/>
+    <mergeCell ref="AX46:AZ47"/>
+    <mergeCell ref="BA46:BH47"/>
+    <mergeCell ref="A46:B47"/>
+    <mergeCell ref="C46:G47"/>
+    <mergeCell ref="H46:L47"/>
+    <mergeCell ref="M46:S47"/>
+    <mergeCell ref="T46:AB47"/>
+    <mergeCell ref="AC46:AM47"/>
+    <mergeCell ref="AN46:AQ47"/>
+    <mergeCell ref="AR46:AT47"/>
+    <mergeCell ref="AU46:AW47"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR8 AR10 AR12 AR14 AR16 AR18 AR28 AR26 AR20 AR22 AR24 AR38 AR32 AR34 AR36 AR40 AR30 AR42 AR44 AR46">
